--- a/PopfreSurvey/Cottonwood Survey.xlsx
+++ b/PopfreSurvey/Cottonwood Survey.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\SEEDLINGCSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD3374E-275B-4B1D-8CD9-6A30522DC11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A61BBC-ACE1-40AD-BBF1-AA152403AC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="3" activeTab="4" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="Beasley 11-10-23" sheetId="1" r:id="rId1"/>
     <sheet name="Childs 11-11-23" sheetId="2" r:id="rId2"/>
     <sheet name="Beasley_06-2024" sheetId="7" r:id="rId3"/>
-    <sheet name="Childs_06-24" sheetId="8" r:id="rId4"/>
-    <sheet name="1 Row BRAP" sheetId="4" r:id="rId5"/>
-    <sheet name="1 Row CHD" sheetId="5" r:id="rId6"/>
-    <sheet name="Densities" sheetId="6" r:id="rId7"/>
-    <sheet name="MetaData" sheetId="11" r:id="rId8"/>
+    <sheet name="Beasley 10-9-24" sheetId="12" r:id="rId4"/>
+    <sheet name="BRAP10-2024" sheetId="13" r:id="rId5"/>
+    <sheet name="Childs06-24" sheetId="8" r:id="rId6"/>
+    <sheet name="1 Row BRAP" sheetId="4" r:id="rId7"/>
+    <sheet name="1 Row CHD" sheetId="5" r:id="rId8"/>
+    <sheet name="Densities" sheetId="6" r:id="rId9"/>
+    <sheet name="MetaData" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="106">
   <si>
     <t>LB1</t>
   </si>
@@ -352,6 +354,15 @@
   </si>
   <si>
     <t>HDR_CHD_06-2024</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>HDR</t>
   </si>
 </sst>
 </file>
@@ -862,7 +873,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -930,8 +941,6 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -3484,7 +3493,7 @@
   <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3566,7 +3575,7 @@
       <c r="V1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="W1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6758,6 +6767,1472 @@
       </c>
       <c r="F126">
         <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A198A519-8398-4329-A6FC-795589BF833D}">
+  <dimension ref="A1:AK30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6">
+        <v>124</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6">
+        <v>93</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="6">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="6">
+        <v>10</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="6">
+        <v>15</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>49</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6">
+        <v>88</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="6">
+        <v>42</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V3" s="6">
+        <v>12.56</v>
+      </c>
+      <c r="W3" s="7"/>
+      <c r="X3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>12.56</v>
+      </c>
+      <c r="Z3" s="7"/>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="6">
+        <v>15</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="T4" s="7"/>
+      <c r="U4" t="s">
+        <v>9</v>
+      </c>
+      <c r="V4" s="6">
+        <v>12.56</v>
+      </c>
+      <c r="W4" s="7"/>
+      <c r="X4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>12.56</v>
+      </c>
+      <c r="Z4" s="7"/>
+      <c r="AA4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="7"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="7"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="7"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="7"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="7"/>
+      <c r="AB5" s="6"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="6">
+        <v>19.318181818181817</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="6">
+        <v>1</v>
+      </c>
+      <c r="W6" s="7"/>
+      <c r="X6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7"/>
+      <c r="AA6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE6">
+        <v>0.28048780487804881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6">
+        <v>2.2292993630573248</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="6">
+        <v>7.2941176470588234</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="6">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1.4154281670205235</v>
+      </c>
+      <c r="U7" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="6">
+        <v>1.1942675159235667</v>
+      </c>
+      <c r="W7" s="7"/>
+      <c r="X7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>3.8216560509554141</v>
+      </c>
+      <c r="Z7" s="7"/>
+      <c r="AA7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>6.9355980184005661</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE7">
+        <v>2.2173913043478262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="6">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="6">
+        <v>45</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="6">
+        <v>45</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="6">
+        <v>9</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V9" s="6">
+        <v>8</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB9" s="6">
+        <v>57</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="6">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="6">
+        <v>42</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="T10" s="7"/>
+      <c r="U10" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="6">
+        <v>12.56</v>
+      </c>
+      <c r="W10" s="7"/>
+      <c r="X10" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>12.56</v>
+      </c>
+      <c r="Z10" s="7"/>
+      <c r="AA10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB10" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3.14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="6">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="6">
+        <v>15</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" t="s">
+        <v>9</v>
+      </c>
+      <c r="V11" s="6">
+        <v>12.56</v>
+      </c>
+      <c r="W11" s="7"/>
+      <c r="X11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>12.56</v>
+      </c>
+      <c r="Z11" s="7"/>
+      <c r="AA11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB11" s="6">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="7"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="7"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="7"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="7"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="7"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="6">
+        <v>19.318181818181817</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" t="s">
+        <v>14</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="6">
+        <v>1</v>
+      </c>
+      <c r="W13" s="7"/>
+      <c r="X13" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="7"/>
+      <c r="AA13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE13">
+        <v>0.28048780487804881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2.6470588235294117</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="6">
+        <v>3</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="6">
+        <v>6.3694267515923562</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1.2738853503184713</v>
+      </c>
+      <c r="U14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" s="6">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="W14" s="7"/>
+      <c r="X14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>2.3089171974522293</v>
+      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>8.0679405520169851</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE14">
+        <v>0.91304347826086951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>52</v>
+      </c>
+      <c r="O19" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19">
+        <v>59</v>
+      </c>
+      <c r="R19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S19" t="s">
+        <v>18</v>
+      </c>
+      <c r="T19">
+        <v>43</v>
+      </c>
+      <c r="U19" t="s">
+        <v>24</v>
+      </c>
+      <c r="V19" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19">
+        <v>41</v>
+      </c>
+      <c r="X19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>80</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC19">
+        <v>124</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF19">
+        <v>83</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI19">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>74</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="P20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20">
+        <v>3.14</v>
+      </c>
+      <c r="S20" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="V20" t="s">
+        <v>8</v>
+      </c>
+      <c r="W20">
+        <v>12.56</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z20">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC20">
+        <v>3.14</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF20">
+        <v>2.355</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI20">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21">
+        <v>52.7834</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="P21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <v>3.14</v>
+      </c>
+      <c r="S21" t="s">
+        <v>9</v>
+      </c>
+      <c r="T21">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="V21" t="s">
+        <v>9</v>
+      </c>
+      <c r="W21">
+        <v>12.56</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC21">
+        <v>3.14</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF21">
+        <v>2.355</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI21">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>0.25675675675675674</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>14</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>20.842105263157894</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23">
+        <v>0.22734420291227925</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23">
+        <v>18.789808917197451</v>
+      </c>
+      <c r="S23" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23">
+        <v>6.0863411181882512</v>
+      </c>
+      <c r="V23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W23">
+        <v>3.2643312101910826</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z23">
+        <v>11.323425336164188</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC23">
+        <v>39.490445859872608</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF23">
+        <v>35.244161358811041</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI23">
+        <v>35.987261146496813</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>52</v>
+      </c>
+      <c r="N26" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26">
+        <v>54</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26">
+        <v>46</v>
+      </c>
+      <c r="T26" t="s">
+        <v>24</v>
+      </c>
+      <c r="U26" t="s">
+        <v>18</v>
+      </c>
+      <c r="V26">
+        <v>43</v>
+      </c>
+      <c r="W26" t="s">
+        <v>25</v>
+      </c>
+      <c r="X26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y26">
+        <v>33</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB26">
+        <v>178</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE26">
+        <v>93</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH26">
+        <v>149</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK26">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="O27" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27">
+        <v>3.14</v>
+      </c>
+      <c r="R27" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="U27" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27">
+        <v>12.56</v>
+      </c>
+      <c r="X27" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y27">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB27">
+        <v>3.14</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE27">
+        <v>2.355</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH27">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28">
+        <v>52.7834</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="O28" t="s">
+        <v>9</v>
+      </c>
+      <c r="P28">
+        <v>3.14</v>
+      </c>
+      <c r="R28" t="s">
+        <v>9</v>
+      </c>
+      <c r="S28">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="U28" t="s">
+        <v>9</v>
+      </c>
+      <c r="V28">
+        <v>12.56</v>
+      </c>
+      <c r="X28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y28">
+        <v>7.0650000000000004</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB28">
+        <v>3.14</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE28">
+        <v>2.355</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH28">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0.25675675675675674</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>14</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="U29" t="s">
+        <v>14</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB29">
+        <v>1</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AG29" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>10.736842105263158</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <v>0.22734420291227925</v>
+      </c>
+      <c r="K30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30">
+        <v>17.197452229299362</v>
+      </c>
+      <c r="R30" t="s">
+        <v>29</v>
+      </c>
+      <c r="S30">
+        <v>6.5109695682944091</v>
+      </c>
+      <c r="U30" t="s">
+        <v>29</v>
+      </c>
+      <c r="V30">
+        <v>3.4235668789808917</v>
+      </c>
+      <c r="X30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y30">
+        <v>4.6709129511677281</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB30">
+        <v>56.687898089171973</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE30">
+        <v>39.490445859872615</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH30">
+        <v>47.452229299363054</v>
       </c>
     </row>
   </sheetData>
@@ -11464,7 +12939,7 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11472,7 +12947,77 @@
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" t="s">
+        <v>68</v>
+      </c>
+    </row>
     <row r="2" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
@@ -13392,11 +14937,6268 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D5751A-3847-4554-B458-A396F0FC2AEC}">
+  <dimension ref="A1:W129"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="70" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:V41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>128</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>14</v>
+      </c>
+      <c r="L3">
+        <v>146</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>91</v>
+      </c>
+      <c r="O3">
+        <v>7</v>
+      </c>
+      <c r="P3">
+        <v>50</v>
+      </c>
+      <c r="Q3">
+        <v>7</v>
+      </c>
+      <c r="R3">
+        <v>61</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>51</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>17</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>111</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>85</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>77</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>53</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>33</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>81</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>130</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>32</v>
+      </c>
+      <c r="U5">
+        <v>4</v>
+      </c>
+      <c r="V5">
+        <v>58</v>
+      </c>
+      <c r="W5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>104</v>
+      </c>
+      <c r="H6">
+        <v>9</v>
+      </c>
+      <c r="I6">
+        <v>101</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>34</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>117</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>71</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>82</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>76</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>38</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>60</v>
+      </c>
+      <c r="U8">
+        <v>17</v>
+      </c>
+      <c r="V8">
+        <v>124</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>11</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>71</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>24</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>72</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>58</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>11</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>53</v>
+      </c>
+      <c r="W11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>25</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>53</v>
+      </c>
+      <c r="W12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>12</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
+      <c r="W13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>69</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>17</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>73</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>81</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>7</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>87</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>29</v>
+      </c>
+      <c r="U15">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>11</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>49</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>22</v>
+      </c>
+      <c r="U16">
+        <v>2</v>
+      </c>
+      <c r="V16">
+        <v>16</v>
+      </c>
+      <c r="W16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17">
+        <v>76</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>84</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>12</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <v>62</v>
+      </c>
+      <c r="W17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>39</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>14</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>78</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>11</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>16</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>9</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>11</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>83</v>
+      </c>
+      <c r="S20">
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <v>14</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>80</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>61</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>20</v>
+      </c>
+      <c r="W21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>56</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>11</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>115</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>31</v>
+      </c>
+      <c r="U22">
+        <v>7</v>
+      </c>
+      <c r="V22">
+        <v>88</v>
+      </c>
+      <c r="W22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>36</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>60</v>
+      </c>
+      <c r="U23">
+        <v>8</v>
+      </c>
+      <c r="V23">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>34</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>48</v>
+      </c>
+      <c r="U24">
+        <v>13</v>
+      </c>
+      <c r="V24">
+        <v>90</v>
+      </c>
+      <c r="W24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>8</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>9</v>
+      </c>
+      <c r="S25">
+        <v>5</v>
+      </c>
+      <c r="T25">
+        <v>118</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>26</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="S26">
+        <v>5</v>
+      </c>
+      <c r="T26">
+        <v>117</v>
+      </c>
+      <c r="U26">
+        <v>9</v>
+      </c>
+      <c r="V26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>9</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>16</v>
+      </c>
+      <c r="U27">
+        <v>5</v>
+      </c>
+      <c r="V27">
+        <v>54</v>
+      </c>
+      <c r="W27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>8</v>
+      </c>
+      <c r="U28">
+        <v>9</v>
+      </c>
+      <c r="V28">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>35</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>5</v>
+      </c>
+      <c r="U29">
+        <v>7</v>
+      </c>
+      <c r="V29">
+        <v>102</v>
+      </c>
+      <c r="W29">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>7</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>7</v>
+      </c>
+      <c r="W30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>69</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>57</v>
+      </c>
+      <c r="W31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>28</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>21</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>16</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>33</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>10</v>
+      </c>
+      <c r="V33">
+        <v>100</v>
+      </c>
+      <c r="W33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>29</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>31</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+      <c r="U34">
+        <v>7</v>
+      </c>
+      <c r="V34">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>29</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>59</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>5</v>
+      </c>
+      <c r="U35">
+        <v>7</v>
+      </c>
+      <c r="V35">
+        <v>65</v>
+      </c>
+      <c r="W35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>28</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <v>20</v>
+      </c>
+      <c r="U36">
+        <v>7</v>
+      </c>
+      <c r="V36">
+        <v>63</v>
+      </c>
+      <c r="W36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>67</v>
+      </c>
+      <c r="S37">
+        <v>2</v>
+      </c>
+      <c r="T37">
+        <v>20</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>85</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38">
+        <v>60</v>
+      </c>
+      <c r="S38">
+        <v>4</v>
+      </c>
+      <c r="T38">
+        <v>78</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+      <c r="V38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>77</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39">
+        <v>33</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>70</v>
+      </c>
+      <c r="W39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>11</v>
+      </c>
+      <c r="J40">
+        <v>8</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <v>5</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+      <c r="V40">
+        <v>14</v>
+      </c>
+      <c r="W40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>9</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>11</v>
+      </c>
+      <c r="W41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>139</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>5</v>
+      </c>
+      <c r="W42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>36</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>126</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>26</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>19</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>40</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>30</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>42</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>23</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>35</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>26</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>19</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>19</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+      <c r="T48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>38</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>13</v>
+      </c>
+      <c r="S49">
+        <v>3</v>
+      </c>
+      <c r="T49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>29</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="S50">
+        <v>3</v>
+      </c>
+      <c r="T50">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>51</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>19</v>
+      </c>
+      <c r="S51">
+        <v>2</v>
+      </c>
+      <c r="T51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52">
+        <v>39</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="I52">
+        <v>126</v>
+      </c>
+      <c r="S52">
+        <v>4</v>
+      </c>
+      <c r="T52">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>8</v>
+      </c>
+      <c r="F53">
+        <v>195</v>
+      </c>
+      <c r="G53">
+        <v>14</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>17</v>
+      </c>
+      <c r="S53">
+        <v>1</v>
+      </c>
+      <c r="T53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="T54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>103</v>
+      </c>
+      <c r="G55">
+        <v>16</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55">
+        <v>20</v>
+      </c>
+      <c r="S55">
+        <v>1</v>
+      </c>
+      <c r="T55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>17</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>19</v>
+      </c>
+      <c r="S56">
+        <v>1</v>
+      </c>
+      <c r="T56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>18</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>11</v>
+      </c>
+      <c r="S57">
+        <v>1</v>
+      </c>
+      <c r="T57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>19</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>6</v>
+      </c>
+      <c r="S58">
+        <v>1</v>
+      </c>
+      <c r="T58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>20</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>21</v>
+      </c>
+      <c r="S59">
+        <v>1</v>
+      </c>
+      <c r="T59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>21</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>30</v>
+      </c>
+      <c r="S60">
+        <v>1</v>
+      </c>
+      <c r="T60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>19</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+      <c r="T61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>7</v>
+      </c>
+      <c r="S62">
+        <v>3</v>
+      </c>
+      <c r="T62">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>42</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>3</v>
+      </c>
+      <c r="I64">
+        <v>23</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>9</v>
+      </c>
+      <c r="S65">
+        <v>6</v>
+      </c>
+      <c r="T65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>29</v>
+      </c>
+      <c r="S66">
+        <v>1</v>
+      </c>
+      <c r="T66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>8</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+      <c r="T67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>26</v>
+      </c>
+      <c r="S68">
+        <v>1</v>
+      </c>
+      <c r="T68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>11</v>
+      </c>
+      <c r="S69">
+        <v>1</v>
+      </c>
+      <c r="T69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>19</v>
+      </c>
+      <c r="S70">
+        <v>1</v>
+      </c>
+      <c r="T70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>12</v>
+      </c>
+      <c r="S71">
+        <v>9</v>
+      </c>
+      <c r="T71">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="J72">
+        <v>12</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>8</v>
+      </c>
+      <c r="J73">
+        <v>13</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>14</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>15</v>
+      </c>
+      <c r="S75">
+        <v>2</v>
+      </c>
+      <c r="T75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>11</v>
+      </c>
+      <c r="S76">
+        <v>3</v>
+      </c>
+      <c r="T76">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+      <c r="S77">
+        <v>3</v>
+      </c>
+      <c r="T77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>15</v>
+      </c>
+      <c r="S78">
+        <v>4</v>
+      </c>
+      <c r="T78">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="107" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>12</v>
+      </c>
+      <c r="I122">
+        <v>145</v>
+      </c>
+      <c r="J122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>8</v>
+      </c>
+      <c r="I123">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>11</v>
+      </c>
+      <c r="I124">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="J126">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>10</v>
+      </c>
+      <c r="I127">
+        <v>122</v>
+      </c>
+      <c r="J127">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>8</v>
+      </c>
+      <c r="I128">
+        <v>99</v>
+      </c>
+      <c r="J128">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>11</v>
+      </c>
+      <c r="I129">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383C6244-A801-4A06-8993-78CFC07FC091}">
+  <dimension ref="A1:C327"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C327"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <f>B2/(A2/10)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C66" si="0">B3/(A3/10)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>128</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>91.428571428571431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>111</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>158.57142857142858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>142.85714285714286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>173.33333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>177.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>76</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>115.71428571428572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>76</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>84.444444444444443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>106.66666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22">
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23">
+        <v>56</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>186.66666666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>86.666666666666671</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>27</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>28</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>93.333333333333343</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>85</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>106.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>77</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>36</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>36</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47">
+        <v>42</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>38</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>29</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>39</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>195</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>103</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>73.571428571428569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>33</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>9</v>
+      </c>
+      <c r="B60">
+        <v>101</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>112.22222222222221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>82</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>117.14285714285715</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>19</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>63.333333333333336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C63" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:C130" si="1">B67/(A67/10)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>9</v>
+      </c>
+      <c r="B68">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>11</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>9</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>69</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>21</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>33</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>31</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>103.33333333333334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>59</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>28</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>93.333333333333343</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>67</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>60</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>4</v>
+      </c>
+      <c r="B93">
+        <v>33</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C95" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>139</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>173.75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>10</v>
+      </c>
+      <c r="B97">
+        <v>126</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>19</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>30</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="B100">
+        <v>23</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101">
+        <v>26</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>13</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2</v>
+      </c>
+      <c r="B105">
+        <v>19</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>126</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2</v>
+      </c>
+      <c r="B107">
+        <v>17</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>9</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2</v>
+      </c>
+      <c r="B109">
+        <v>20</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2</v>
+      </c>
+      <c r="B110">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111">
+        <v>11</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113">
+        <v>21</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114">
+        <v>30</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115">
+        <v>19</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117">
+        <v>42</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>3</v>
+      </c>
+      <c r="B118">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120">
+        <v>29</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>1</v>
+      </c>
+      <c r="B121">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2</v>
+      </c>
+      <c r="B122">
+        <v>26</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124">
+        <v>19</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>1</v>
+      </c>
+      <c r="B125">
+        <v>12</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C126" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>1</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>1</v>
+      </c>
+      <c r="B128">
+        <v>14</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>1</v>
+      </c>
+      <c r="B129">
+        <v>15</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>1</v>
+      </c>
+      <c r="B130">
+        <v>11</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>1</v>
+      </c>
+      <c r="B131">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:C194" si="2">B131/(A131/10)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>1</v>
+      </c>
+      <c r="B132">
+        <v>15</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>1</v>
+      </c>
+      <c r="B133">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>1</v>
+      </c>
+      <c r="B134">
+        <v>20</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>1</v>
+      </c>
+      <c r="B135">
+        <v>12</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136">
+        <v>9</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>1</v>
+      </c>
+      <c r="B137">
+        <v>17</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>1</v>
+      </c>
+      <c r="B138">
+        <v>11</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>1</v>
+      </c>
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1</v>
+      </c>
+      <c r="B140">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141">
+        <v>12</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>1</v>
+      </c>
+      <c r="B142">
+        <v>18</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144">
+        <v>17</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145">
+        <v>15</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1</v>
+      </c>
+      <c r="B146">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147">
+        <v>10</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148">
+        <v>11</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1</v>
+      </c>
+      <c r="B149">
+        <v>16</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150">
+        <v>14</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151">
+        <v>14</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1</v>
+      </c>
+      <c r="B152">
+        <v>12</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153">
+        <v>14</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154">
+        <v>20</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1</v>
+      </c>
+      <c r="B155">
+        <v>6</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2</v>
+      </c>
+      <c r="B156">
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1</v>
+      </c>
+      <c r="B157">
+        <v>17</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1</v>
+      </c>
+      <c r="B158">
+        <v>12</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2</v>
+      </c>
+      <c r="B159">
+        <v>23</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2</v>
+      </c>
+      <c r="B160">
+        <v>21</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1</v>
+      </c>
+      <c r="B161">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1</v>
+      </c>
+      <c r="B162">
+        <v>12</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>19</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164">
+        <v>21</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>1</v>
+      </c>
+      <c r="B165">
+        <v>12</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166">
+        <v>8</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167">
+        <v>11</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>1</v>
+      </c>
+      <c r="B168">
+        <v>14</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169">
+        <v>8</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>1</v>
+      </c>
+      <c r="B170">
+        <v>11</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2</v>
+      </c>
+      <c r="B171">
+        <v>13</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>1</v>
+      </c>
+      <c r="B172">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>1</v>
+      </c>
+      <c r="B173">
+        <v>18</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1</v>
+      </c>
+      <c r="B174">
+        <v>18</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1</v>
+      </c>
+      <c r="B175">
+        <v>18</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>12</v>
+      </c>
+      <c r="B176">
+        <v>145</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>120.83333333333334</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>8</v>
+      </c>
+      <c r="B177">
+        <v>118</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>147.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>11</v>
+      </c>
+      <c r="B178">
+        <v>136</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>123.63636363636363</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C179" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C180" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>10</v>
+      </c>
+      <c r="B181">
+        <v>122</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>8</v>
+      </c>
+      <c r="B182">
+        <v>99</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>123.75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>11</v>
+      </c>
+      <c r="B183">
+        <v>104</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>94.545454545454533</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>14</v>
+      </c>
+      <c r="B184">
+        <v>146</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>104.28571428571429</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>7</v>
+      </c>
+      <c r="B185">
+        <v>85</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>121.42857142857143</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>8</v>
+      </c>
+      <c r="B186">
+        <v>81</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>101.25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>4</v>
+      </c>
+      <c r="B187">
+        <v>34</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="B188">
+        <v>16</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>53.333333333333336</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>3</v>
+      </c>
+      <c r="B189">
+        <v>38</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>126.66666666666667</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>4</v>
+      </c>
+      <c r="B190">
+        <v>23</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>5</v>
+      </c>
+      <c r="B191">
+        <v>71</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>4</v>
+      </c>
+      <c r="B192">
+        <v>11</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>3</v>
+      </c>
+      <c r="B193">
+        <v>25</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>3</v>
+      </c>
+      <c r="B194">
+        <v>20</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>4</v>
+      </c>
+      <c r="B195">
+        <v>17</v>
+      </c>
+      <c r="C195">
+        <f t="shared" ref="C195:C258" si="3">B195/(A195/10)</f>
+        <v>42.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>11</v>
+      </c>
+      <c r="B196">
+        <v>87</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="3"/>
+        <v>79.090909090909079</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="B197">
+        <v>49</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4</v>
+      </c>
+      <c r="B198">
+        <v>84</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>5</v>
+      </c>
+      <c r="B199">
+        <v>39</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2</v>
+      </c>
+      <c r="B200">
+        <v>16</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>7</v>
+      </c>
+      <c r="B201">
+        <v>83</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>118.57142857142858</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>5</v>
+      </c>
+      <c r="B202">
+        <v>61</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>8</v>
+      </c>
+      <c r="B203">
+        <v>115</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>143.75</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>5</v>
+      </c>
+      <c r="B204">
+        <v>36</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>4</v>
+      </c>
+      <c r="B205">
+        <v>34</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>8</v>
+      </c>
+      <c r="B206">
+        <v>91</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>113.75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>8</v>
+      </c>
+      <c r="B207">
+        <v>77</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>96.25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>11</v>
+      </c>
+      <c r="B208">
+        <v>130</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>118.18181818181817</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C209" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>7</v>
+      </c>
+      <c r="B210">
+        <v>50</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>71.428571428571431</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>7</v>
+      </c>
+      <c r="B211">
+        <v>61</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>87.142857142857153</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2</v>
+      </c>
+      <c r="B212">
+        <v>10</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>4</v>
+      </c>
+      <c r="B213">
+        <v>51</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>127.5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214">
+        <v>53</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>176.66666666666669</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>5</v>
+      </c>
+      <c r="B215">
+        <v>32</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>1</v>
+      </c>
+      <c r="B216">
+        <v>8</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>1</v>
+      </c>
+      <c r="B217">
+        <v>6</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>4</v>
+      </c>
+      <c r="B218">
+        <v>60</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>1</v>
+      </c>
+      <c r="B219">
+        <v>11</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2</v>
+      </c>
+      <c r="B220">
+        <v>24</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>5</v>
+      </c>
+      <c r="B221">
+        <v>53</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>3</v>
+      </c>
+      <c r="B222">
+        <v>53</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>176.66666666666669</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2</v>
+      </c>
+      <c r="B223">
+        <v>12</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>5</v>
+      </c>
+      <c r="B224">
+        <v>73</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>3</v>
+      </c>
+      <c r="B225">
+        <v>29</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>3</v>
+      </c>
+      <c r="B226">
+        <v>22</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>73.333333333333343</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2</v>
+      </c>
+      <c r="B227">
+        <v>12</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>1</v>
+      </c>
+      <c r="B228">
+        <v>14</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>1</v>
+      </c>
+      <c r="B229">
+        <v>9</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2</v>
+      </c>
+      <c r="B230">
+        <v>14</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>3</v>
+      </c>
+      <c r="B231">
+        <v>20</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232">
+        <v>31</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233">
+        <v>60</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>3</v>
+      </c>
+      <c r="B234">
+        <v>48</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235">
+        <v>118</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>5</v>
+      </c>
+      <c r="B236">
+        <v>117</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2</v>
+      </c>
+      <c r="B237">
+        <v>16</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>1</v>
+      </c>
+      <c r="B238">
+        <v>8</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>1</v>
+      </c>
+      <c r="B239">
+        <v>5</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>1</v>
+      </c>
+      <c r="B240">
+        <v>7</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>1</v>
+      </c>
+      <c r="B241">
+        <v>7</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>1</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>1</v>
+      </c>
+      <c r="B243">
+        <v>6</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>1</v>
+      </c>
+      <c r="B244">
+        <v>5</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>1</v>
+      </c>
+      <c r="B245">
+        <v>5</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2</v>
+      </c>
+      <c r="B246">
+        <v>20</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>4</v>
+      </c>
+      <c r="B248">
+        <v>78</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>4</v>
+      </c>
+      <c r="B249">
+        <v>70</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="3"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>1</v>
+      </c>
+      <c r="B250">
+        <v>5</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>1</v>
+      </c>
+      <c r="B251">
+        <v>5</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252">
+        <v>5</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>1</v>
+      </c>
+      <c r="B253">
+        <v>5</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>1</v>
+      </c>
+      <c r="B254">
+        <v>5</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>1</v>
+      </c>
+      <c r="B255">
+        <v>5</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>1</v>
+      </c>
+      <c r="B256">
+        <v>5</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>1</v>
+      </c>
+      <c r="B257">
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>1</v>
+      </c>
+      <c r="B258">
+        <v>5</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>3</v>
+      </c>
+      <c r="B259">
+        <v>48</v>
+      </c>
+      <c r="C259">
+        <f t="shared" ref="C259:C322" si="4">B259/(A259/10)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>3</v>
+      </c>
+      <c r="B260">
+        <v>31</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="4"/>
+        <v>103.33333333333334</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2</v>
+      </c>
+      <c r="B261">
+        <v>20</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>4</v>
+      </c>
+      <c r="B262">
+        <v>53</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="4"/>
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263">
+        <v>5</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>1</v>
+      </c>
+      <c r="B264">
+        <v>5</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>5</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>1</v>
+      </c>
+      <c r="B266">
+        <v>5</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>1</v>
+      </c>
+      <c r="B267">
+        <v>7</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>1</v>
+      </c>
+      <c r="B268">
+        <v>7</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>1</v>
+      </c>
+      <c r="B269">
+        <v>7</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>1</v>
+      </c>
+      <c r="B270">
+        <v>7</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>1</v>
+      </c>
+      <c r="B271">
+        <v>7</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>3</v>
+      </c>
+      <c r="B272">
+        <v>22</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="4"/>
+        <v>73.333333333333343</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2</v>
+      </c>
+      <c r="B273">
+        <v>16</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2</v>
+      </c>
+      <c r="B274">
+        <v>16</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>6</v>
+      </c>
+      <c r="B275">
+        <v>60</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>1</v>
+      </c>
+      <c r="B276">
+        <v>7</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>1</v>
+      </c>
+      <c r="B277">
+        <v>7</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>1</v>
+      </c>
+      <c r="B278">
+        <v>7</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>1</v>
+      </c>
+      <c r="B279">
+        <v>7</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>1</v>
+      </c>
+      <c r="B280">
+        <v>7</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>9</v>
+      </c>
+      <c r="B281">
+        <v>140</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="4"/>
+        <v>155.55555555555554</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2</v>
+      </c>
+      <c r="B282">
+        <v>19</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>3</v>
+      </c>
+      <c r="B283">
+        <v>40</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="4"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>4</v>
+      </c>
+      <c r="B284">
+        <v>98</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="4"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2</v>
+      </c>
+      <c r="B285">
+        <v>14</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>3</v>
+      </c>
+      <c r="B286">
+        <v>22</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="4"/>
+        <v>73.333333333333343</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>3</v>
+      </c>
+      <c r="B287">
+        <v>55</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="4"/>
+        <v>183.33333333333334</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>4</v>
+      </c>
+      <c r="B288">
+        <v>54</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="4"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2</v>
+      </c>
+      <c r="B289">
+        <v>17</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2</v>
+      </c>
+      <c r="B290">
+        <v>11</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>4</v>
+      </c>
+      <c r="B291">
+        <v>58</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>5</v>
+      </c>
+      <c r="B292">
+        <v>117</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="4"/>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>3</v>
+      </c>
+      <c r="B293">
+        <v>23</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="4"/>
+        <v>76.666666666666671</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>17</v>
+      </c>
+      <c r="B294">
+        <v>124</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="4"/>
+        <v>72.941176470588232</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C295" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>6</v>
+      </c>
+      <c r="B296">
+        <v>72</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C297" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C298" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>1</v>
+      </c>
+      <c r="B299">
+        <v>12</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>1</v>
+      </c>
+      <c r="B300">
+        <v>12</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>8</v>
+      </c>
+      <c r="B301">
+        <v>98</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="4"/>
+        <v>122.5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2</v>
+      </c>
+      <c r="B302">
+        <v>16</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>5</v>
+      </c>
+      <c r="B303">
+        <v>62</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>5</v>
+      </c>
+      <c r="B304">
+        <v>53</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2</v>
+      </c>
+      <c r="B305">
+        <v>18</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>5</v>
+      </c>
+      <c r="B306">
+        <v>51</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C307" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>7</v>
+      </c>
+      <c r="B308">
+        <v>88</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="4"/>
+        <v>125.71428571428572</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>8</v>
+      </c>
+      <c r="B309">
+        <v>68</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>13</v>
+      </c>
+      <c r="B310">
+        <v>90</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="4"/>
+        <v>69.230769230769226</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>5</v>
+      </c>
+      <c r="B311">
+        <v>54</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>9</v>
+      </c>
+      <c r="B312">
+        <v>87</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="4"/>
+        <v>96.666666666666657</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>5</v>
+      </c>
+      <c r="B313">
+        <v>54</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>9</v>
+      </c>
+      <c r="B314">
+        <v>87</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="4"/>
+        <v>96.666666666666657</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>7</v>
+      </c>
+      <c r="B315">
+        <v>102</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="4"/>
+        <v>145.71428571428572</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C316" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>4</v>
+      </c>
+      <c r="B317">
+        <v>57</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="4"/>
+        <v>142.5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2</v>
+      </c>
+      <c r="B318">
+        <v>24</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>10</v>
+      </c>
+      <c r="B319">
+        <v>100</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>7</v>
+      </c>
+      <c r="B320">
+        <v>85</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="4"/>
+        <v>121.42857142857143</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>7</v>
+      </c>
+      <c r="B321">
+        <v>65</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="4"/>
+        <v>92.857142857142861</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>7</v>
+      </c>
+      <c r="B322">
+        <v>63</v>
+      </c>
+      <c r="C322">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>13</v>
+      </c>
+      <c r="C323">
+        <f t="shared" ref="C323:C327" si="5">B323/(A323/10)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324">
+        <v>10</v>
+      </c>
+      <c r="C324">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C325" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>1</v>
+      </c>
+      <c r="B326">
+        <v>14</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>1</v>
+      </c>
+      <c r="B327">
+        <v>11</v>
+      </c>
+      <c r="C327">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A95AE59-CBE5-4A6B-B2CA-C0174A2A8D84}">
   <dimension ref="A1:U180"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+      <selection activeCell="X51" sqref="X51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18215,11 +26017,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285519EE-B10C-45CF-9970-A060D6349D1C}">
   <dimension ref="A1:F460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -25836,7 +33638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453AB799-9B0F-4FB6-BC75-E27671756E32}">
   <dimension ref="A1:F719"/>
   <sheetViews>
@@ -36231,12 +44033,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CBE31A-F64E-47D3-BA26-D625CBC69259}">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36894,1470 +44696,4 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A198A519-8398-4329-A6FC-795589BF833D}">
-  <dimension ref="A1:AK30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="6">
-        <v>124</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="6">
-        <v>93</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="6">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="6">
-        <v>10</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="6">
-        <v>15</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y2" s="6">
-        <v>48</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="6">
-        <v>49</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="H3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="6">
-        <v>88</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="6">
-        <v>42</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S3" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="T3" s="7"/>
-      <c r="U3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V3" s="6">
-        <v>12.56</v>
-      </c>
-      <c r="W3" s="7"/>
-      <c r="X3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y3" s="6">
-        <v>12.56</v>
-      </c>
-      <c r="Z3" s="7"/>
-      <c r="AA3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE3">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3.14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="6">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="T4" s="7"/>
-      <c r="U4" t="s">
-        <v>9</v>
-      </c>
-      <c r="V4" s="6">
-        <v>12.56</v>
-      </c>
-      <c r="W4" s="7"/>
-      <c r="X4" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>12.56</v>
-      </c>
-      <c r="Z4" s="7"/>
-      <c r="AA4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6">
-        <v>3.14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="I5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="7"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="7"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="7"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="7"/>
-      <c r="AB5" s="6"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="6">
-        <v>19.318181818181817</v>
-      </c>
-      <c r="L6" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-      <c r="T6" s="7"/>
-      <c r="U6" t="s">
-        <v>14</v>
-      </c>
-      <c r="V6" s="6">
-        <v>1</v>
-      </c>
-      <c r="W6" s="7"/>
-      <c r="X6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="7"/>
-      <c r="AA6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB6" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE6">
-        <v>0.28048780487804881</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="6">
-        <v>2.2292993630573248</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7">
-        <v>2.5477707006369426</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="6">
-        <v>7.2941176470588234</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="6">
-        <v>6.2</v>
-      </c>
-      <c r="N7" s="7"/>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="6">
-        <v>7.3602264685067231</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1.4154281670205235</v>
-      </c>
-      <c r="U7" t="s">
-        <v>29</v>
-      </c>
-      <c r="V7" s="6">
-        <v>1.1942675159235667</v>
-      </c>
-      <c r="W7" s="7"/>
-      <c r="X7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>3.8216560509554141</v>
-      </c>
-      <c r="Z7" s="7"/>
-      <c r="AA7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB7" s="6">
-        <v>6.9355980184005661</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE7">
-        <v>2.2173913043478262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="22.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="6">
-        <v>45</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="6">
-        <v>45</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O9" t="s">
-        <v>18</v>
-      </c>
-      <c r="P9" s="6">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R9" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="6">
-        <v>9</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U9" t="s">
-        <v>18</v>
-      </c>
-      <c r="V9" s="6">
-        <v>8</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="X9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="6">
-        <v>29</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB9" s="6">
-        <v>57</v>
-      </c>
-      <c r="AC9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="6">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="6">
-        <v>88</v>
-      </c>
-      <c r="L10" t="s">
-        <v>8</v>
-      </c>
-      <c r="M10" s="6">
-        <v>42</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P10" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="T10" s="7"/>
-      <c r="U10" t="s">
-        <v>8</v>
-      </c>
-      <c r="V10" s="6">
-        <v>12.56</v>
-      </c>
-      <c r="W10" s="7"/>
-      <c r="X10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y10" s="6">
-        <v>12.56</v>
-      </c>
-      <c r="Z10" s="7"/>
-      <c r="AA10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB10" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE10">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3.14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="6">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="6">
-        <v>15</v>
-      </c>
-      <c r="N11" s="7"/>
-      <c r="O11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P11" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="T11" s="7"/>
-      <c r="U11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" s="6">
-        <v>12.56</v>
-      </c>
-      <c r="W11" s="7"/>
-      <c r="X11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y11" s="6">
-        <v>12.56</v>
-      </c>
-      <c r="Z11" s="7"/>
-      <c r="AA11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB11" s="6">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6">
-        <v>3.14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="I12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="7"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="7"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="7"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="7"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="7"/>
-      <c r="AB12" s="6"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="6">
-        <v>19.318181818181817</v>
-      </c>
-      <c r="L13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="N13" s="7"/>
-      <c r="O13" t="s">
-        <v>14</v>
-      </c>
-      <c r="P13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" t="s">
-        <v>14</v>
-      </c>
-      <c r="S13" s="6">
-        <v>1</v>
-      </c>
-      <c r="T13" s="7"/>
-      <c r="U13" t="s">
-        <v>14</v>
-      </c>
-      <c r="V13" s="6">
-        <v>1</v>
-      </c>
-      <c r="W13" s="7"/>
-      <c r="X13" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="7"/>
-      <c r="AA13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB13" s="6">
-        <v>1</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE13">
-        <v>0.28048780487804881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="6">
-        <v>0.63694267515923564</v>
-      </c>
-      <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14">
-        <v>2.5477707006369426</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="6">
-        <v>2.6470588235294117</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="6">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="6">
-        <v>6.3694267515923562</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" t="s">
-        <v>29</v>
-      </c>
-      <c r="S14" s="6">
-        <v>1.2738853503184713</v>
-      </c>
-      <c r="U14" t="s">
-        <v>29</v>
-      </c>
-      <c r="V14" s="6">
-        <v>0.63694267515923564</v>
-      </c>
-      <c r="W14" s="7"/>
-      <c r="X14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y14" s="6">
-        <v>2.3089171974522293</v>
-      </c>
-      <c r="Z14" s="7"/>
-      <c r="AA14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB14" s="6">
-        <v>8.0679405520169851</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE14">
-        <v>0.91304347826086951</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>99</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19">
-        <v>52</v>
-      </c>
-      <c r="O19" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19">
-        <v>59</v>
-      </c>
-      <c r="R19" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" t="s">
-        <v>18</v>
-      </c>
-      <c r="T19">
-        <v>43</v>
-      </c>
-      <c r="U19" t="s">
-        <v>24</v>
-      </c>
-      <c r="V19" t="s">
-        <v>18</v>
-      </c>
-      <c r="W19">
-        <v>41</v>
-      </c>
-      <c r="X19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z19">
-        <v>80</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC19">
-        <v>124</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF19">
-        <v>83</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI19">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20">
-        <v>74</v>
-      </c>
-      <c r="G20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20">
-        <v>12</v>
-      </c>
-      <c r="K20" t="s">
-        <v>8</v>
-      </c>
-      <c r="L20">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="P20" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20">
-        <v>3.14</v>
-      </c>
-      <c r="S20" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="V20" t="s">
-        <v>8</v>
-      </c>
-      <c r="W20">
-        <v>12.56</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z20">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC20">
-        <v>3.14</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF20">
-        <v>2.355</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AI20">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>52.7834</v>
-      </c>
-      <c r="K21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="P21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q21">
-        <v>3.14</v>
-      </c>
-      <c r="S21" t="s">
-        <v>9</v>
-      </c>
-      <c r="T21">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="V21" t="s">
-        <v>9</v>
-      </c>
-      <c r="W21">
-        <v>12.56</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z21">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC21">
-        <v>3.14</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF21">
-        <v>2.355</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI21">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>0.25675675675675674</v>
-      </c>
-      <c r="G22" t="s">
-        <v>14</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>14</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="S22" t="s">
-        <v>14</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
-        <v>14</v>
-      </c>
-      <c r="W22">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>14</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF22">
-        <v>1</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>14</v>
-      </c>
-      <c r="AI22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23">
-        <v>20.842105263157894</v>
-      </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23">
-        <v>0.22734420291227925</v>
-      </c>
-      <c r="K23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23">
-        <v>7.3602264685067231</v>
-      </c>
-      <c r="P23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q23">
-        <v>18.789808917197451</v>
-      </c>
-      <c r="S23" t="s">
-        <v>29</v>
-      </c>
-      <c r="T23">
-        <v>6.0863411181882512</v>
-      </c>
-      <c r="V23" t="s">
-        <v>29</v>
-      </c>
-      <c r="W23">
-        <v>3.2643312101910826</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z23">
-        <v>11.323425336164188</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC23">
-        <v>39.490445859872608</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF23">
-        <v>35.244161358811041</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI23">
-        <v>35.987261146496813</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>51</v>
-      </c>
-      <c r="G26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26">
-        <v>52</v>
-      </c>
-      <c r="N26" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" t="s">
-        <v>18</v>
-      </c>
-      <c r="P26">
-        <v>54</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26">
-        <v>46</v>
-      </c>
-      <c r="T26" t="s">
-        <v>24</v>
-      </c>
-      <c r="U26" t="s">
-        <v>18</v>
-      </c>
-      <c r="V26">
-        <v>43</v>
-      </c>
-      <c r="W26" t="s">
-        <v>25</v>
-      </c>
-      <c r="X26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y26">
-        <v>33</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB26">
-        <v>178</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE26">
-        <v>93</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH26">
-        <v>149</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK26">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27">
-        <v>74</v>
-      </c>
-      <c r="G27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27">
-        <v>12</v>
-      </c>
-      <c r="K27" t="s">
-        <v>8</v>
-      </c>
-      <c r="L27">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="O27" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27">
-        <v>3.14</v>
-      </c>
-      <c r="R27" t="s">
-        <v>8</v>
-      </c>
-      <c r="S27">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="U27" t="s">
-        <v>8</v>
-      </c>
-      <c r="V27">
-        <v>12.56</v>
-      </c>
-      <c r="X27" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB27">
-        <v>3.14</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE27">
-        <v>2.355</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>8</v>
-      </c>
-      <c r="AH27">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28">
-        <v>52.7834</v>
-      </c>
-      <c r="K28" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="O28" t="s">
-        <v>9</v>
-      </c>
-      <c r="P28">
-        <v>3.14</v>
-      </c>
-      <c r="R28" t="s">
-        <v>9</v>
-      </c>
-      <c r="S28">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="U28" t="s">
-        <v>9</v>
-      </c>
-      <c r="V28">
-        <v>12.56</v>
-      </c>
-      <c r="X28" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y28">
-        <v>7.0650000000000004</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB28">
-        <v>3.14</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE28">
-        <v>2.355</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>9</v>
-      </c>
-      <c r="AH28">
-        <v>3.14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29">
-        <v>0.25675675675675674</v>
-      </c>
-      <c r="G29" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>14</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="R29" t="s">
-        <v>14</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-      <c r="U29" t="s">
-        <v>14</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="X29" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y29">
-        <v>1</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB29">
-        <v>1</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE29">
-        <v>1</v>
-      </c>
-      <c r="AG29" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>10.736842105263158</v>
-      </c>
-      <c r="G30" t="s">
-        <v>29</v>
-      </c>
-      <c r="H30">
-        <v>0.22734420291227925</v>
-      </c>
-      <c r="K30" t="s">
-        <v>31</v>
-      </c>
-      <c r="L30">
-        <v>7.3602264685067231</v>
-      </c>
-      <c r="O30" t="s">
-        <v>29</v>
-      </c>
-      <c r="P30">
-        <v>17.197452229299362</v>
-      </c>
-      <c r="R30" t="s">
-        <v>29</v>
-      </c>
-      <c r="S30">
-        <v>6.5109695682944091</v>
-      </c>
-      <c r="U30" t="s">
-        <v>29</v>
-      </c>
-      <c r="V30">
-        <v>3.4235668789808917</v>
-      </c>
-      <c r="X30" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y30">
-        <v>4.6709129511677281</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB30">
-        <v>56.687898089171973</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE30">
-        <v>39.490445859872615</v>
-      </c>
-      <c r="AG30" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH30">
-        <v>47.452229299363054</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/PopfreSurvey/Cottonwood Survey.xlsx
+++ b/PopfreSurvey/Cottonwood Survey.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7A61BBC-ACE1-40AD-BBF1-AA152403AC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1607F46B-73B2-4DB9-AB3C-ECE29426A0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
-    <sheet name="Beasley 11-10-23" sheetId="1" r:id="rId1"/>
+    <sheet name="LB2023sites" sheetId="1" r:id="rId1"/>
     <sheet name="Childs 11-11-23" sheetId="2" r:id="rId2"/>
-    <sheet name="Beasley_06-2024" sheetId="7" r:id="rId3"/>
-    <sheet name="Beasley 10-9-24" sheetId="12" r:id="rId4"/>
+    <sheet name="LB06_2024sites" sheetId="7" r:id="rId3"/>
+    <sheet name="LB10_2024sites" sheetId="12" r:id="rId4"/>
     <sheet name="BRAP10-2024" sheetId="13" r:id="rId5"/>
     <sheet name="Childs06-24" sheetId="8" r:id="rId6"/>
     <sheet name="1 Row BRAP" sheetId="4" r:id="rId7"/>
@@ -3493,7 +3493,7 @@
   <dimension ref="A1:W126"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14940,8 +14940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D5751A-3847-4554-B458-A396F0FC2AEC}">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="70" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3:V41"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17379,8 +17379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383C6244-A801-4A06-8993-78CFC07FC091}">
   <dimension ref="A1:C327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C327"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="N307" sqref="N307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PopfreSurvey/Cottonwood Survey.xlsx
+++ b/PopfreSurvey/Cottonwood Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8C2CB7-91C2-4917-B5B4-77D84933AFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2685B14-430D-4887-97F8-0AE138F650BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="711" activeTab="4" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="122">
   <si>
     <t>LB1</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>C9</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>n total</t>
   </si>
 </sst>
 </file>
@@ -917,7 +923,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -986,6 +992,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -10204,15 +10211,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>534761</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11615,7 +11622,7 @@
         <v>108</v>
       </c>
       <c r="AB7" s="47">
-        <f t="shared" ref="AA7:AB7" si="0">GEOMEAN(D:D)</f>
+        <f t="shared" ref="AB7" si="0">GEOMEAN(D:D)</f>
         <v>19.442222095223581</v>
       </c>
       <c r="AC7" s="47" t="s">
@@ -11873,7 +11880,7 @@
         <v>110</v>
       </c>
       <c r="AB9" s="47">
-        <f t="shared" ref="AA9:AR9" si="1">(AB7)/AB8*10</f>
+        <f t="shared" ref="AB9:AR9" si="1">(AB7)/AB8*10</f>
         <v>68.738635424337616</v>
       </c>
       <c r="AC9" s="47" t="s">
@@ -26167,15 +26174,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0104C06B-C0DC-44D2-B50E-2774B86BB819}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26206,8 +26213,20 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA1" s="48">
+        <v>45200</v>
+      </c>
+      <c r="AB1" s="48">
+        <v>45444</v>
+      </c>
+      <c r="AC1" s="48">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -26268,8 +26287,24 @@
       <c r="T2">
         <v>51</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>SUM(A2:T2)</f>
+        <v>451</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>2.2292993630573248</v>
+      </c>
+      <c r="AB2">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -26330,8 +26365,20 @@
       <c r="T3">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3">
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="AB3">
+        <v>2.5477707006369426</v>
+      </c>
+      <c r="AC3">
+        <v>2.5477707006369426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -26392,8 +26439,20 @@
       <c r="T4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA4">
+        <v>7.2941176470588234</v>
+      </c>
+      <c r="AB4">
+        <v>13.70242214532872</v>
+      </c>
+      <c r="AC4">
+        <v>14.006920415224913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -26454,8 +26513,20 @@
       <c r="T5">
         <v>0.28048780487804881</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5">
+        <v>6.2</v>
+      </c>
+      <c r="AB5">
+        <v>8.4</v>
+      </c>
+      <c r="AC5">
+        <v>22.586666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -26516,8 +26587,20 @@
       <c r="T6">
         <v>2.2173913043478262</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z6" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA6">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="AB6">
+        <v>6.3694267515923562</v>
+      </c>
+      <c r="AC6">
+        <v>3.1139419674451521</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -26578,8 +26661,20 @@
       <c r="T7">
         <v>21.291475811816191</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA7">
+        <v>1.4154281670205235</v>
+      </c>
+      <c r="AB7">
+        <v>1.2738853503184713</v>
+      </c>
+      <c r="AC7">
+        <v>0.42462845010615707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -26640,8 +26735,20 @@
       <c r="T8">
         <v>3.0202120537030743</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z8" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA8">
+        <v>1.1942675159235667</v>
+      </c>
+      <c r="AB8">
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="AC8">
+        <v>7.9617834394904455E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -26702,8 +26809,20 @@
       <c r="T9">
         <v>70.496625512472775</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA9">
+        <v>3.8216560509554141</v>
+      </c>
+      <c r="AB9">
+        <v>2.3089171974522293</v>
+      </c>
+      <c r="AC9">
+        <v>0.15923566878980891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -26734,8 +26853,23 @@
       <c r="S10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA10">
+        <v>6.9355980184005661</v>
+      </c>
+      <c r="AB10">
+        <v>8.0679405520169851</v>
+      </c>
+      <c r="AC10">
+        <v>10.75725406935598</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -26796,8 +26930,24 @@
       <c r="T11">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11">
+        <f>SUM(A11:T11)</f>
+        <v>263</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA11">
+        <v>2.2173913043478262</v>
+      </c>
+      <c r="AB11">
+        <v>3.255198487712665</v>
+      </c>
+      <c r="AC11">
+        <v>5.1153119092627595</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -26858,8 +27008,20 @@
       <c r="T12">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Z12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA12">
+        <v>451</v>
+      </c>
+      <c r="AB12">
+        <v>263</v>
+      </c>
+      <c r="AC12">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -26921,7 +27083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -26983,7 +27145,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -27045,7 +27207,7 @@
         <v>3.255198487712665</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -27107,7 +27269,7 @@
         <v>29.761950544145957</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -27169,7 +27331,7 @@
         <v>3.2349184734269354</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>110</v>
       </c>
@@ -27231,7 +27393,7 @@
         <v>92.002165707185227</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -27263,7 +27425,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -27324,8 +27486,12 @@
       <c r="T20">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20">
+        <f>SUM(A20:T20)</f>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -27387,7 +27553,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -27449,7 +27615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -27511,7 +27677,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -27573,7 +27739,7 @@
         <v>5.1153119092627595</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>106</v>
       </c>
@@ -27635,7 +27801,7 @@
         <v>41.258777001401953</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -27697,7 +27863,7 @@
         <v>3.8831046024425837</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -27767,15 +27933,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047459A-84CF-4C10-AB46-31EB1D52CDD3}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" activeCellId="2" sqref="A1:T1 A8:T8 A18:T18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>111</v>
       </c>
@@ -27807,7 +27973,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -27868,8 +28034,18 @@
       <c r="T2">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <f>SUM(A2:T2)</f>
+        <v>706</v>
+      </c>
+      <c r="Y2" s="48">
+        <v>45200</v>
+      </c>
+      <c r="Z2" s="48">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -27930,8 +28106,17 @@
       <c r="T3">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y3">
+        <v>1.3378378378378379</v>
+      </c>
+      <c r="Z3">
+        <v>0.68918918918918914</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -27992,8 +28177,17 @@
       <c r="T4">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y4">
+        <v>0.2273588480485032</v>
+      </c>
+      <c r="Z4">
+        <v>0.2273588480485032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -28054,8 +28248,17 @@
       <c r="T5">
         <v>0.28048780487804881</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y5">
+        <v>7.3602264685067231</v>
+      </c>
+      <c r="Z5">
+        <v>7.3602264685067231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -28116,8 +28319,17 @@
       <c r="T6">
         <v>35.987261146496813</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y6">
+        <v>18.789808917197451</v>
+      </c>
+      <c r="Z6">
+        <v>17.197452229299362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -28178,8 +28390,17 @@
       <c r="T7">
         <v>28.509474562347254</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y7">
+        <v>6.0863411181882512</v>
+      </c>
+      <c r="Z7">
+        <v>6.5109695682944091</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -28240,8 +28461,17 @@
       <c r="T8">
         <v>2.4908729060074632</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y8">
+        <v>3.2643312101910826</v>
+      </c>
+      <c r="Z8">
+        <v>3.4235668789808917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -28302,8 +28532,28 @@
       <c r="T9">
         <v>114.45575763254872</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9">
+        <v>11.323425336164188</v>
+      </c>
+      <c r="Z9">
+        <v>4.6709129511677281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10">
+        <v>39.490445859872608</v>
+      </c>
+      <c r="Z10">
+        <v>56.687898089171973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -28334,8 +28584,17 @@
       <c r="S11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11">
+        <v>35.244161358811041</v>
+      </c>
+      <c r="Z11">
+        <v>39.490445859872615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -28396,8 +28655,21 @@
       <c r="T12">
         <v>149</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12">
+        <f>SUM(A12:T12)</f>
+        <v>711</v>
+      </c>
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12">
+        <v>35.987261146496813</v>
+      </c>
+      <c r="Z12">
+        <v>47.452229299363054</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -28458,8 +28730,17 @@
       <c r="T13">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="X13" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y13">
+        <v>706</v>
+      </c>
+      <c r="Z13">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -28521,7 +28802,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -28583,7 +28864,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>

--- a/PopfreSurvey/Cottonwood Survey.xlsx
+++ b/PopfreSurvey/Cottonwood Survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2685B14-430D-4887-97F8-0AE138F650BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD9B2E-FEE1-4BA2-8BF9-83A0485B3DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="711" activeTab="4" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
@@ -27933,13 +27933,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047459A-84CF-4C10-AB46-31EB1D52CDD3}">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -29110,6 +29113,12 @@
       </c>
       <c r="T19">
         <v>86.741700338167135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f>SQRT(R14/3.14159)</f>
+        <v>0.86580622262727136</v>
       </c>
     </row>
   </sheetData>

--- a/PopfreSurvey/Cottonwood Survey.xlsx
+++ b/PopfreSurvey/Cottonwood Survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD9B2E-FEE1-4BA2-8BF9-83A0485B3DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC5D4C-AD39-41D3-8938-8AD72C8945A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="711" activeTab="4" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="711" activeTab="3" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2023sites" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="123">
   <si>
     <t>LB1</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>n total</t>
+  </si>
+  <si>
+    <t>%chamge from original visit</t>
   </si>
 </sst>
 </file>
@@ -26174,15 +26177,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0104C06B-C0DC-44D2-B50E-2774B86BB819}">
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="30" max="30" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -26225,8 +26231,11 @@
       <c r="AC1" s="48">
         <v>45566</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -26303,8 +26312,12 @@
       <c r="AC2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD2">
+        <f>(AC2-AA2)/AA2*100</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -26377,8 +26390,12 @@
       <c r="AC3">
         <v>2.5477707006369426</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD12" si="0">(AC3-AA3)/AA3*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -26451,8 +26468,12 @@
       <c r="AC4">
         <v>14.006920415224913</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD4">
+        <f t="shared" si="0"/>
+        <v>92.030360531309299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -26525,8 +26546,12 @@
       <c r="AC5">
         <v>22.586666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD5">
+        <f t="shared" si="0"/>
+        <v>264.30107526881721</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -26599,8 +26624,12 @@
       <c r="AC6">
         <v>3.1139419674451521</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD6">
+        <f t="shared" si="0"/>
+        <v>-57.692307692307701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -26673,8 +26702,12 @@
       <c r="AC7">
         <v>0.42462845010615707</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD7">
+        <f t="shared" si="0"/>
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -26747,8 +26780,12 @@
       <c r="AC8">
         <v>7.9617834394904455E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD8">
+        <f t="shared" si="0"/>
+        <v>-93.333333333333329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -26821,8 +26858,12 @@
       <c r="AC9">
         <v>0.15923566878980891</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>-95.833333333333329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -26868,8 +26909,12 @@
       <c r="AC10">
         <v>10.75725406935598</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD10">
+        <f t="shared" si="0"/>
+        <v>55.102040816326536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -26946,8 +26991,12 @@
       <c r="AC11">
         <v>5.1153119092627595</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD11">
+        <f t="shared" si="0"/>
+        <v>130.69053708439895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -27020,8 +27069,12 @@
       <c r="AC12">
         <v>306</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AD12">
+        <f t="shared" si="0"/>
+        <v>-32.150776053215083</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -27083,7 +27136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -27145,7 +27198,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -27207,7 +27260,7 @@
         <v>3.255198487712665</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -27935,8 +27988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047459A-84CF-4C10-AB46-31EB1D52CDD3}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/PopfreSurvey/Cottonwood Survey.xlsx
+++ b/PopfreSurvey/Cottonwood Survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E17F722-4C35-42E1-ADB9-CA0E48F0CE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC04809C-1C7C-4E23-8353-93891BE56CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="711" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="711" firstSheet="3" activeTab="3" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2023sites" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,28 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -943,7 +965,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -1013,8 +1035,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
@@ -10831,15 +10851,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BCE418-F023-4F01-8F98-A45CDCA06A8D}">
   <dimension ref="A1:BB126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF126"/>
+    <sheetView topLeftCell="P1" zoomScale="66" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AF60" sqref="AD4:AF60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="7"/>
     <col min="15" max="15" width="8.88671875" style="7"/>
     <col min="18" max="18" width="8.88671875" style="7"/>
@@ -10923,7 +10943,6 @@
       <c r="AE1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="49"/>
       <c r="AG1" t="s">
         <v>68</v>
       </c>
@@ -10975,7 +10994,7 @@
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -11139,7 +11158,7 @@
       <c r="B3" s="6">
         <v>31</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
@@ -11294,7 +11313,7 @@
       <c r="B4" s="6">
         <v>8</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
@@ -11449,7 +11468,7 @@
       <c r="B5" s="6">
         <v>6</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5">
         <v>1</v>
       </c>
       <c r="G5" s="7">
@@ -11595,7 +11614,7 @@
       <c r="B6" s="6">
         <v>6</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6">
         <v>1</v>
       </c>
       <c r="G6" s="7">
@@ -11736,7 +11755,7 @@
       <c r="B7" s="6">
         <v>5</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7">
         <v>1</v>
       </c>
       <c r="G7" s="7">
@@ -11892,7 +11911,7 @@
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8">
         <v>1</v>
       </c>
       <c r="G8" s="7">
@@ -12045,7 +12064,7 @@
       <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="G9" s="7">
@@ -33389,8 +33408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFF0965-FC0A-4CDE-859E-E43108456C37}">
   <dimension ref="A1:BB59"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3:AF29"/>
+    <sheetView topLeftCell="U1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD3:AF29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33406,7 +33425,6 @@
       <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="49"/>
       <c r="D1" t="s">
         <v>50</v>
       </c>
@@ -33474,7 +33492,6 @@
       <c r="AE1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="49"/>
       <c r="AG1" t="s">
         <v>68</v>
       </c>
@@ -33526,7 +33543,7 @@
       <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="49" t="s">
         <v>123</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -36916,8 +36933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D5751A-3847-4554-B458-A396F0FC2AEC}">
   <dimension ref="A1:BA129"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="R11" zoomScale="70" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AE41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36996,7 +37013,6 @@
       <c r="AD1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AE1" s="49"/>
       <c r="AF1" t="s">
         <v>68</v>
       </c>
@@ -37285,8 +37301,9 @@
       <c r="AA3">
         <v>51</v>
       </c>
-      <c r="AB3">
-        <v>9</v>
+      <c r="AB3" cm="1">
+        <f t="array" aca="1" ref="AB3" ca="1">Z3:AB78</f>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>2</v>
@@ -41886,7 +41903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0104C06B-C0DC-44D2-B50E-2774B86BB819}">
   <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
@@ -43695,7 +43712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047459A-84CF-4C10-AB46-31EB1D52CDD3}">
   <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
@@ -45413,19 +45430,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC8E509-2181-4DE4-BD61-7FEE68EE1A45}">
   <dimension ref="A1:AZ126"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="R1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AE115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="7"/>
     <col min="15" max="15" width="8.88671875" style="6"/>
-    <col min="16" max="16" width="8.88671875" style="49"/>
     <col min="21" max="21" width="8.88671875" style="6"/>
-    <col min="22" max="22" width="8.88671875" style="49"/>
     <col min="27" max="27" width="8.88671875" style="6"/>
-    <col min="28" max="28" width="8.88671875" style="49"/>
     <col min="37" max="37" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -45463,7 +45477,6 @@
       <c r="O1" t="s">
         <v>80</v>
       </c>
-      <c r="P1"/>
       <c r="Q1" s="7" t="s">
         <v>81</v>
       </c>
@@ -45476,7 +45489,6 @@
       <c r="U1" t="s">
         <v>84</v>
       </c>
-      <c r="V1"/>
       <c r="W1" s="7" t="s">
         <v>85</v>
       </c>
@@ -45489,7 +45501,6 @@
       <c r="AA1" t="s">
         <v>88</v>
       </c>
-      <c r="AB1"/>
       <c r="AC1" s="7" t="s">
         <v>89</v>
       </c>
@@ -45748,7 +45759,7 @@
       <c r="O3" s="6">
         <v>64</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3">
         <v>5</v>
       </c>
       <c r="Q3">
@@ -45766,7 +45777,7 @@
       <c r="U3" s="6">
         <v>8</v>
       </c>
-      <c r="V3" s="50">
+      <c r="V3">
         <v>7</v>
       </c>
       <c r="W3">
@@ -45784,7 +45795,7 @@
       <c r="AA3" s="6">
         <v>46</v>
       </c>
-      <c r="AB3" s="50">
+      <c r="AB3">
         <v>9</v>
       </c>
       <c r="AC3">
@@ -45900,7 +45911,7 @@
       <c r="O4" s="6">
         <v>33</v>
       </c>
-      <c r="P4" s="50">
+      <c r="P4">
         <v>5</v>
       </c>
       <c r="Q4">
@@ -45918,7 +45929,7 @@
       <c r="U4" s="6">
         <v>11</v>
       </c>
-      <c r="V4" s="50">
+      <c r="V4">
         <v>7</v>
       </c>
       <c r="W4">
@@ -45936,7 +45947,7 @@
       <c r="AA4" s="6">
         <v>34</v>
       </c>
-      <c r="AB4" s="50">
+      <c r="AB4">
         <v>9</v>
       </c>
       <c r="AC4">
@@ -46052,7 +46063,7 @@
       <c r="O5" s="6">
         <v>95</v>
       </c>
-      <c r="P5" s="50">
+      <c r="P5">
         <v>5</v>
       </c>
       <c r="Q5">
@@ -46070,7 +46081,7 @@
       <c r="U5" s="6">
         <v>15</v>
       </c>
-      <c r="V5" s="50">
+      <c r="V5">
         <v>7</v>
       </c>
       <c r="W5">
@@ -46088,7 +46099,7 @@
       <c r="AA5" s="6">
         <v>30</v>
       </c>
-      <c r="AB5" s="50">
+      <c r="AB5">
         <v>9</v>
       </c>
       <c r="AC5">
@@ -46201,7 +46212,7 @@
       <c r="O6" s="6">
         <v>26</v>
       </c>
-      <c r="P6" s="50">
+      <c r="P6">
         <v>5</v>
       </c>
       <c r="Q6">
@@ -46219,7 +46230,7 @@
       <c r="U6" s="6">
         <v>5</v>
       </c>
-      <c r="V6" s="50">
+      <c r="V6">
         <v>7</v>
       </c>
       <c r="W6">
@@ -46237,7 +46248,7 @@
       <c r="AA6" s="6">
         <v>47</v>
       </c>
-      <c r="AB6" s="50">
+      <c r="AB6">
         <v>9</v>
       </c>
       <c r="AC6">
@@ -46366,7 +46377,7 @@
       <c r="O7" s="6">
         <v>20</v>
       </c>
-      <c r="P7" s="50">
+      <c r="P7">
         <v>5</v>
       </c>
       <c r="Q7">
@@ -46384,7 +46395,7 @@
       <c r="U7" s="6">
         <v>5</v>
       </c>
-      <c r="V7" s="50">
+      <c r="V7">
         <v>7</v>
       </c>
       <c r="W7">
@@ -46402,7 +46413,7 @@
       <c r="AA7" s="6">
         <v>50</v>
       </c>
-      <c r="AB7" s="50">
+      <c r="AB7">
         <v>9</v>
       </c>
       <c r="AC7">
@@ -46528,7 +46539,7 @@
       <c r="O8" s="6">
         <v>64</v>
       </c>
-      <c r="P8" s="50">
+      <c r="P8">
         <v>5</v>
       </c>
       <c r="Q8">
@@ -46546,7 +46557,7 @@
       <c r="U8" s="6">
         <v>6</v>
       </c>
-      <c r="V8" s="50">
+      <c r="V8">
         <v>7</v>
       </c>
       <c r="W8">
@@ -46564,7 +46575,7 @@
       <c r="AA8" s="6">
         <v>34</v>
       </c>
-      <c r="AB8" s="50">
+      <c r="AB8">
         <v>9</v>
       </c>
       <c r="AC8">
@@ -46690,7 +46701,7 @@
       <c r="O9" s="6">
         <v>105</v>
       </c>
-      <c r="P9" s="50">
+      <c r="P9">
         <v>5</v>
       </c>
       <c r="Q9">
@@ -46708,7 +46719,7 @@
       <c r="U9" s="6">
         <v>6</v>
       </c>
-      <c r="V9" s="50">
+      <c r="V9">
         <v>7</v>
       </c>
       <c r="W9">
@@ -46726,7 +46737,7 @@
       <c r="AA9" s="6">
         <v>46</v>
       </c>
-      <c r="AB9" s="50">
+      <c r="AB9">
         <v>9</v>
       </c>
       <c r="AC9">
@@ -46852,7 +46863,7 @@
       <c r="O10" s="6">
         <v>37</v>
       </c>
-      <c r="P10" s="50">
+      <c r="P10">
         <v>5</v>
       </c>
       <c r="Q10">
@@ -46870,7 +46881,7 @@
       <c r="U10" s="6">
         <v>4</v>
       </c>
-      <c r="V10" s="50">
+      <c r="V10">
         <v>7</v>
       </c>
       <c r="W10">
@@ -46888,7 +46899,7 @@
       <c r="AA10" s="6">
         <v>27</v>
       </c>
-      <c r="AB10" s="50">
+      <c r="AB10">
         <v>9</v>
       </c>
       <c r="AC10">
@@ -46944,7 +46955,7 @@
       <c r="O11" s="6">
         <v>60</v>
       </c>
-      <c r="P11" s="50">
+      <c r="P11">
         <v>5</v>
       </c>
       <c r="Q11">
@@ -46962,7 +46973,7 @@
       <c r="U11" s="6">
         <v>8</v>
       </c>
-      <c r="V11" s="50">
+      <c r="V11">
         <v>7</v>
       </c>
       <c r="W11">
@@ -46980,7 +46991,7 @@
       <c r="AA11" s="6">
         <v>35</v>
       </c>
-      <c r="AB11" s="50">
+      <c r="AB11">
         <v>9</v>
       </c>
       <c r="AC11">
@@ -47039,7 +47050,7 @@
       <c r="O12" s="6">
         <v>77</v>
       </c>
-      <c r="P12" s="50">
+      <c r="P12">
         <v>5</v>
       </c>
       <c r="Q12">
@@ -47057,7 +47068,7 @@
       <c r="U12" s="6">
         <v>16</v>
       </c>
-      <c r="V12" s="50">
+      <c r="V12">
         <v>7</v>
       </c>
       <c r="W12">
@@ -47075,7 +47086,7 @@
       <c r="AA12" s="6">
         <v>44</v>
       </c>
-      <c r="AB12" s="50">
+      <c r="AB12">
         <v>9</v>
       </c>
       <c r="AC12">
@@ -47131,7 +47142,7 @@
       <c r="O13" s="6">
         <v>22</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13">
         <v>5</v>
       </c>
       <c r="Q13">
@@ -47149,7 +47160,7 @@
       <c r="U13" s="6">
         <v>18</v>
       </c>
-      <c r="V13" s="50">
+      <c r="V13">
         <v>7</v>
       </c>
       <c r="W13">
@@ -47167,7 +47178,7 @@
       <c r="AA13" s="6">
         <v>5</v>
       </c>
-      <c r="AB13" s="50">
+      <c r="AB13">
         <v>9</v>
       </c>
       <c r="AC13">
@@ -47223,7 +47234,7 @@
       <c r="O14" s="6">
         <v>74</v>
       </c>
-      <c r="P14" s="50">
+      <c r="P14">
         <v>5</v>
       </c>
       <c r="Q14">
@@ -47241,7 +47252,7 @@
       <c r="U14" s="6">
         <v>3</v>
       </c>
-      <c r="V14" s="50">
+      <c r="V14">
         <v>7</v>
       </c>
       <c r="W14">
@@ -47259,7 +47270,7 @@
       <c r="AA14" s="6">
         <v>36</v>
       </c>
-      <c r="AB14" s="50">
+      <c r="AB14">
         <v>9</v>
       </c>
       <c r="AC14">
@@ -47306,7 +47317,7 @@
       <c r="O15" s="6">
         <v>88</v>
       </c>
-      <c r="P15" s="50">
+      <c r="P15">
         <v>5</v>
       </c>
       <c r="Q15">
@@ -47324,7 +47335,7 @@
       <c r="U15" s="6">
         <v>5</v>
       </c>
-      <c r="V15" s="50">
+      <c r="V15">
         <v>7</v>
       </c>
       <c r="W15">
@@ -47342,7 +47353,7 @@
       <c r="AA15" s="6">
         <v>16</v>
       </c>
-      <c r="AB15" s="50">
+      <c r="AB15">
         <v>9</v>
       </c>
       <c r="AC15">
@@ -47392,7 +47403,7 @@
       <c r="O16" s="6">
         <v>34</v>
       </c>
-      <c r="P16" s="50">
+      <c r="P16">
         <v>5</v>
       </c>
       <c r="Q16">
@@ -47410,7 +47421,7 @@
       <c r="U16" s="6">
         <v>10</v>
       </c>
-      <c r="V16" s="50">
+      <c r="V16">
         <v>7</v>
       </c>
       <c r="W16">
@@ -47428,7 +47439,7 @@
       <c r="AA16" s="6">
         <v>49</v>
       </c>
-      <c r="AB16" s="50">
+      <c r="AB16">
         <v>9</v>
       </c>
       <c r="AC16">
@@ -47475,7 +47486,7 @@
       <c r="O17" s="6">
         <v>71</v>
       </c>
-      <c r="P17" s="50">
+      <c r="P17">
         <v>5</v>
       </c>
       <c r="Q17">
@@ -47493,7 +47504,7 @@
       <c r="U17" s="6">
         <v>8</v>
       </c>
-      <c r="V17" s="50">
+      <c r="V17">
         <v>7</v>
       </c>
       <c r="W17">
@@ -47511,7 +47522,7 @@
       <c r="AA17" s="6">
         <v>25</v>
       </c>
-      <c r="AB17" s="50">
+      <c r="AB17">
         <v>9</v>
       </c>
       <c r="AC17">
@@ -47558,7 +47569,7 @@
       <c r="O18" s="6">
         <v>119</v>
       </c>
-      <c r="P18" s="50">
+      <c r="P18">
         <v>5</v>
       </c>
       <c r="Q18">
@@ -47576,7 +47587,7 @@
       <c r="U18" s="6">
         <v>4</v>
       </c>
-      <c r="V18" s="50">
+      <c r="V18">
         <v>7</v>
       </c>
       <c r="W18">
@@ -47594,7 +47605,7 @@
       <c r="AA18" s="6">
         <v>21</v>
       </c>
-      <c r="AB18" s="50">
+      <c r="AB18">
         <v>9</v>
       </c>
       <c r="AC18">
@@ -47641,7 +47652,7 @@
       <c r="O19" s="6">
         <v>15</v>
       </c>
-      <c r="P19" s="50">
+      <c r="P19">
         <v>5</v>
       </c>
       <c r="Q19">
@@ -47659,7 +47670,7 @@
       <c r="U19" s="6">
         <v>4</v>
       </c>
-      <c r="V19" s="50">
+      <c r="V19">
         <v>7</v>
       </c>
       <c r="W19">
@@ -47677,7 +47688,7 @@
       <c r="AA19" s="6">
         <v>40</v>
       </c>
-      <c r="AB19" s="50">
+      <c r="AB19">
         <v>9</v>
       </c>
       <c r="AC19">
@@ -47724,7 +47735,7 @@
       <c r="O20" s="6">
         <v>33</v>
       </c>
-      <c r="P20" s="50">
+      <c r="P20">
         <v>5</v>
       </c>
       <c r="Q20">
@@ -47742,7 +47753,7 @@
       <c r="U20" s="6">
         <v>9</v>
       </c>
-      <c r="V20" s="50">
+      <c r="V20">
         <v>7</v>
       </c>
       <c r="W20">
@@ -47760,7 +47771,7 @@
       <c r="AA20" s="6">
         <v>60</v>
       </c>
-      <c r="AB20" s="50">
+      <c r="AB20">
         <v>9</v>
       </c>
       <c r="AC20">
@@ -47807,7 +47818,7 @@
       <c r="O21" s="6">
         <v>107</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21">
         <v>5</v>
       </c>
       <c r="Q21">
@@ -47825,7 +47836,7 @@
       <c r="U21" s="6">
         <v>8</v>
       </c>
-      <c r="V21" s="50">
+      <c r="V21">
         <v>7</v>
       </c>
       <c r="W21">
@@ -47843,7 +47854,7 @@
       <c r="AA21" s="6">
         <v>10</v>
       </c>
-      <c r="AB21" s="50">
+      <c r="AB21">
         <v>9</v>
       </c>
       <c r="AC21">
@@ -47890,7 +47901,7 @@
       <c r="O22" s="6">
         <v>64</v>
       </c>
-      <c r="P22" s="50">
+      <c r="P22">
         <v>5</v>
       </c>
       <c r="Q22">
@@ -47908,7 +47919,7 @@
       <c r="U22" s="6">
         <v>8</v>
       </c>
-      <c r="V22" s="50">
+      <c r="V22">
         <v>7</v>
       </c>
       <c r="W22">
@@ -47926,7 +47937,7 @@
       <c r="AA22" s="6">
         <v>10</v>
       </c>
-      <c r="AB22" s="50">
+      <c r="AB22">
         <v>9</v>
       </c>
       <c r="AC22">
@@ -47973,7 +47984,7 @@
       <c r="O23" s="6">
         <v>34</v>
       </c>
-      <c r="P23" s="50">
+      <c r="P23">
         <v>5</v>
       </c>
       <c r="Q23">
@@ -47991,7 +48002,7 @@
       <c r="U23" s="6">
         <v>5</v>
       </c>
-      <c r="V23" s="50">
+      <c r="V23">
         <v>7</v>
       </c>
       <c r="W23">
@@ -48009,7 +48020,7 @@
       <c r="AA23" s="6">
         <v>11</v>
       </c>
-      <c r="AB23" s="50">
+      <c r="AB23">
         <v>9</v>
       </c>
       <c r="AC23">
@@ -48056,7 +48067,7 @@
       <c r="O24" s="6">
         <v>52</v>
       </c>
-      <c r="P24" s="50">
+      <c r="P24">
         <v>5</v>
       </c>
       <c r="Q24">
@@ -48074,7 +48085,7 @@
       <c r="U24" s="6">
         <v>22</v>
       </c>
-      <c r="V24" s="50">
+      <c r="V24">
         <v>7</v>
       </c>
       <c r="W24">
@@ -48092,7 +48103,7 @@
       <c r="AA24" s="6">
         <v>18</v>
       </c>
-      <c r="AB24" s="50">
+      <c r="AB24">
         <v>9</v>
       </c>
       <c r="AC24">
@@ -48139,7 +48150,7 @@
       <c r="O25" s="6">
         <v>50</v>
       </c>
-      <c r="P25" s="50">
+      <c r="P25">
         <v>5</v>
       </c>
       <c r="Q25">
@@ -48157,7 +48168,7 @@
       <c r="U25" s="6">
         <v>7</v>
       </c>
-      <c r="V25" s="50">
+      <c r="V25">
         <v>7</v>
       </c>
       <c r="W25">
@@ -48175,7 +48186,7 @@
       <c r="AA25" s="6">
         <v>12</v>
       </c>
-      <c r="AB25" s="50">
+      <c r="AB25">
         <v>9</v>
       </c>
       <c r="AC25">
@@ -48222,7 +48233,7 @@
       <c r="O26" s="6">
         <v>56</v>
       </c>
-      <c r="P26" s="50">
+      <c r="P26">
         <v>5</v>
       </c>
       <c r="Q26">
@@ -48240,7 +48251,7 @@
       <c r="U26" s="6">
         <v>6</v>
       </c>
-      <c r="V26" s="50">
+      <c r="V26">
         <v>7</v>
       </c>
       <c r="W26">
@@ -48258,7 +48269,7 @@
       <c r="AA26" s="6">
         <v>25</v>
       </c>
-      <c r="AB26" s="50">
+      <c r="AB26">
         <v>9</v>
       </c>
       <c r="AC26">
@@ -48305,7 +48316,7 @@
       <c r="O27" s="6">
         <v>12</v>
       </c>
-      <c r="P27" s="50">
+      <c r="P27">
         <v>5</v>
       </c>
       <c r="Q27">
@@ -48323,7 +48334,7 @@
       <c r="U27" s="6">
         <v>7</v>
       </c>
-      <c r="V27" s="50">
+      <c r="V27">
         <v>7</v>
       </c>
       <c r="W27">
@@ -48341,7 +48352,7 @@
       <c r="AA27" s="6">
         <v>27</v>
       </c>
-      <c r="AB27" s="50">
+      <c r="AB27">
         <v>9</v>
       </c>
       <c r="AC27">
@@ -48388,7 +48399,7 @@
       <c r="O28" s="6">
         <v>75</v>
       </c>
-      <c r="P28" s="50">
+      <c r="P28">
         <v>5</v>
       </c>
       <c r="Q28">
@@ -48406,7 +48417,7 @@
       <c r="U28" s="6">
         <v>11</v>
       </c>
-      <c r="V28" s="50">
+      <c r="V28">
         <v>7</v>
       </c>
       <c r="W28">
@@ -48424,7 +48435,7 @@
       <c r="AA28" s="6">
         <v>40</v>
       </c>
-      <c r="AB28" s="50">
+      <c r="AB28">
         <v>9</v>
       </c>
       <c r="AC28">
@@ -48471,7 +48482,7 @@
       <c r="O29" s="6">
         <v>82</v>
       </c>
-      <c r="P29" s="50">
+      <c r="P29">
         <v>5</v>
       </c>
       <c r="Q29">
@@ -48489,7 +48500,7 @@
       <c r="U29" s="6">
         <v>7</v>
       </c>
-      <c r="V29" s="50">
+      <c r="V29">
         <v>7</v>
       </c>
       <c r="W29">
@@ -48507,7 +48518,7 @@
       <c r="AA29" s="6">
         <v>35</v>
       </c>
-      <c r="AB29" s="50">
+      <c r="AB29">
         <v>9</v>
       </c>
       <c r="AC29">
@@ -48554,7 +48565,7 @@
       <c r="O30" s="6">
         <v>64</v>
       </c>
-      <c r="P30" s="50">
+      <c r="P30">
         <v>5</v>
       </c>
       <c r="Q30">
@@ -48572,7 +48583,7 @@
       <c r="U30" s="6">
         <v>4</v>
       </c>
-      <c r="V30" s="50">
+      <c r="V30">
         <v>7</v>
       </c>
       <c r="W30">
@@ -48590,7 +48601,7 @@
       <c r="AA30" s="6">
         <v>42</v>
       </c>
-      <c r="AB30" s="50">
+      <c r="AB30">
         <v>9</v>
       </c>
       <c r="AC30">
@@ -48637,7 +48648,7 @@
       <c r="O31" s="6">
         <v>29</v>
       </c>
-      <c r="P31" s="50">
+      <c r="P31">
         <v>5</v>
       </c>
       <c r="Q31">
@@ -48655,7 +48666,7 @@
       <c r="U31" s="6">
         <v>5</v>
       </c>
-      <c r="V31" s="50">
+      <c r="V31">
         <v>7</v>
       </c>
       <c r="W31">
@@ -48673,7 +48684,7 @@
       <c r="AA31" s="6">
         <v>46</v>
       </c>
-      <c r="AB31" s="50">
+      <c r="AB31">
         <v>9</v>
       </c>
       <c r="AC31">
@@ -48720,7 +48731,7 @@
       <c r="O32" s="6">
         <v>83</v>
       </c>
-      <c r="P32" s="50">
+      <c r="P32">
         <v>5</v>
       </c>
       <c r="Q32">
@@ -48738,7 +48749,7 @@
       <c r="U32" s="6">
         <v>2</v>
       </c>
-      <c r="V32" s="50">
+      <c r="V32">
         <v>7</v>
       </c>
       <c r="W32">
@@ -48756,7 +48767,7 @@
       <c r="AA32" s="6">
         <v>7</v>
       </c>
-      <c r="AB32" s="50">
+      <c r="AB32">
         <v>9</v>
       </c>
       <c r="AC32">
@@ -48803,7 +48814,7 @@
       <c r="O33" s="6">
         <v>57</v>
       </c>
-      <c r="P33" s="50">
+      <c r="P33">
         <v>5</v>
       </c>
       <c r="Q33">
@@ -48821,7 +48832,7 @@
       <c r="U33" s="6">
         <v>8</v>
       </c>
-      <c r="V33" s="50">
+      <c r="V33">
         <v>7</v>
       </c>
       <c r="W33">
@@ -48839,7 +48850,7 @@
       <c r="AA33" s="6">
         <v>12</v>
       </c>
-      <c r="AB33" s="50">
+      <c r="AB33">
         <v>9</v>
       </c>
       <c r="AC33">
@@ -48886,7 +48897,7 @@
       <c r="O34" s="6">
         <v>10</v>
       </c>
-      <c r="P34" s="50">
+      <c r="P34">
         <v>5</v>
       </c>
       <c r="Q34">
@@ -48904,7 +48915,7 @@
       <c r="U34" s="6">
         <v>6</v>
       </c>
-      <c r="V34" s="50">
+      <c r="V34">
         <v>7</v>
       </c>
       <c r="W34">
@@ -48922,7 +48933,7 @@
       <c r="AA34" s="6">
         <v>37</v>
       </c>
-      <c r="AB34" s="50">
+      <c r="AB34">
         <v>9</v>
       </c>
       <c r="AC34">
@@ -48969,7 +48980,7 @@
       <c r="O35" s="6">
         <v>22</v>
       </c>
-      <c r="P35" s="50">
+      <c r="P35">
         <v>5</v>
       </c>
       <c r="Q35">
@@ -48987,7 +48998,7 @@
       <c r="U35" s="6">
         <v>5</v>
       </c>
-      <c r="V35" s="50">
+      <c r="V35">
         <v>7</v>
       </c>
       <c r="W35">
@@ -49005,7 +49016,7 @@
       <c r="AA35" s="6">
         <v>15</v>
       </c>
-      <c r="AB35" s="50">
+      <c r="AB35">
         <v>9</v>
       </c>
       <c r="AC35">
@@ -49052,7 +49063,7 @@
       <c r="O36" s="6">
         <v>60</v>
       </c>
-      <c r="P36" s="50">
+      <c r="P36">
         <v>5</v>
       </c>
       <c r="Q36">
@@ -49070,7 +49081,7 @@
       <c r="U36" s="6">
         <v>7</v>
       </c>
-      <c r="V36" s="50">
+      <c r="V36">
         <v>7</v>
       </c>
       <c r="W36">
@@ -49088,7 +49099,7 @@
       <c r="AA36" s="6">
         <v>20</v>
       </c>
-      <c r="AB36" s="50">
+      <c r="AB36">
         <v>9</v>
       </c>
       <c r="AC36">
@@ -49135,7 +49146,7 @@
       <c r="O37" s="6">
         <v>112</v>
       </c>
-      <c r="P37" s="50">
+      <c r="P37">
         <v>5</v>
       </c>
       <c r="Q37">
@@ -49153,7 +49164,7 @@
       <c r="U37" s="6">
         <v>9</v>
       </c>
-      <c r="V37" s="50">
+      <c r="V37">
         <v>7</v>
       </c>
       <c r="W37">
@@ -49171,7 +49182,7 @@
       <c r="AA37" s="6">
         <v>43</v>
       </c>
-      <c r="AB37" s="50">
+      <c r="AB37">
         <v>9</v>
       </c>
       <c r="AC37">
@@ -49218,7 +49229,7 @@
       <c r="O38" s="6">
         <v>10</v>
       </c>
-      <c r="P38" s="50">
+      <c r="P38">
         <v>5</v>
       </c>
       <c r="Q38">
@@ -49236,7 +49247,7 @@
       <c r="U38" s="6">
         <v>22</v>
       </c>
-      <c r="V38" s="50">
+      <c r="V38">
         <v>7</v>
       </c>
       <c r="W38">
@@ -49254,7 +49265,7 @@
       <c r="AA38" s="6">
         <v>8</v>
       </c>
-      <c r="AB38" s="50">
+      <c r="AB38">
         <v>9</v>
       </c>
       <c r="AC38">
@@ -49301,7 +49312,7 @@
       <c r="O39" s="6">
         <v>105</v>
       </c>
-      <c r="P39" s="50">
+      <c r="P39">
         <v>5</v>
       </c>
       <c r="Q39">
@@ -49319,7 +49330,7 @@
       <c r="U39" s="6">
         <v>4</v>
       </c>
-      <c r="V39" s="50">
+      <c r="V39">
         <v>7</v>
       </c>
       <c r="W39">
@@ -49337,7 +49348,7 @@
       <c r="AA39" s="6">
         <v>20</v>
       </c>
-      <c r="AB39" s="50">
+      <c r="AB39">
         <v>9</v>
       </c>
       <c r="AC39">
@@ -49384,7 +49395,7 @@
       <c r="O40" s="6">
         <v>63</v>
       </c>
-      <c r="P40" s="50">
+      <c r="P40">
         <v>5</v>
       </c>
       <c r="Q40">
@@ -49402,7 +49413,7 @@
       <c r="U40" s="6">
         <v>5</v>
       </c>
-      <c r="V40" s="50">
+      <c r="V40">
         <v>7</v>
       </c>
       <c r="W40">
@@ -49420,7 +49431,7 @@
       <c r="AA40" s="6">
         <v>40</v>
       </c>
-      <c r="AB40" s="50">
+      <c r="AB40">
         <v>9</v>
       </c>
       <c r="AC40">
@@ -49467,7 +49478,7 @@
       <c r="O41" s="6">
         <v>64</v>
       </c>
-      <c r="P41" s="50">
+      <c r="P41">
         <v>5</v>
       </c>
       <c r="Q41">
@@ -49485,7 +49496,7 @@
       <c r="U41" s="6">
         <v>15</v>
       </c>
-      <c r="V41" s="50">
+      <c r="V41">
         <v>7</v>
       </c>
       <c r="W41">
@@ -49503,7 +49514,7 @@
       <c r="AA41" s="6">
         <v>40</v>
       </c>
-      <c r="AB41" s="50">
+      <c r="AB41">
         <v>9</v>
       </c>
       <c r="AC41">
@@ -49550,7 +49561,7 @@
       <c r="O42" s="6">
         <v>28</v>
       </c>
-      <c r="P42" s="50">
+      <c r="P42">
         <v>5</v>
       </c>
       <c r="Q42">
@@ -49568,7 +49579,7 @@
       <c r="U42" s="6">
         <v>10</v>
       </c>
-      <c r="V42" s="50">
+      <c r="V42">
         <v>7</v>
       </c>
       <c r="W42">
@@ -49586,7 +49597,7 @@
       <c r="AA42" s="6">
         <v>45</v>
       </c>
-      <c r="AB42" s="50">
+      <c r="AB42">
         <v>9</v>
       </c>
       <c r="AC42">
@@ -49633,7 +49644,7 @@
       <c r="O43" s="6">
         <v>27</v>
       </c>
-      <c r="P43" s="50">
+      <c r="P43">
         <v>5</v>
       </c>
       <c r="Q43">
@@ -49651,7 +49662,7 @@
       <c r="U43" s="6">
         <v>4</v>
       </c>
-      <c r="V43" s="50">
+      <c r="V43">
         <v>7</v>
       </c>
       <c r="W43">
@@ -49669,7 +49680,7 @@
       <c r="AA43" s="6">
         <v>10</v>
       </c>
-      <c r="AB43" s="50">
+      <c r="AB43">
         <v>9</v>
       </c>
       <c r="AC43">
@@ -49713,7 +49724,7 @@
       <c r="O44" s="6">
         <v>101</v>
       </c>
-      <c r="P44" s="50">
+      <c r="P44">
         <v>5</v>
       </c>
       <c r="T44">
@@ -49722,7 +49733,7 @@
       <c r="U44" s="6">
         <v>9</v>
       </c>
-      <c r="V44" s="50">
+      <c r="V44">
         <v>7</v>
       </c>
       <c r="W44">
@@ -49740,7 +49751,7 @@
       <c r="AA44" s="6">
         <v>18</v>
       </c>
-      <c r="AB44" s="50">
+      <c r="AB44">
         <v>9</v>
       </c>
       <c r="AC44">
@@ -49790,7 +49801,7 @@
       <c r="O45" s="6">
         <v>10</v>
       </c>
-      <c r="P45" s="50">
+      <c r="P45">
         <v>5</v>
       </c>
       <c r="T45">
@@ -49799,7 +49810,7 @@
       <c r="U45" s="6">
         <v>13</v>
       </c>
-      <c r="V45" s="50">
+      <c r="V45">
         <v>7</v>
       </c>
       <c r="W45">
@@ -49817,7 +49828,7 @@
       <c r="AA45" s="6">
         <v>47</v>
       </c>
-      <c r="AB45" s="50">
+      <c r="AB45">
         <v>9</v>
       </c>
       <c r="AC45">
@@ -49858,7 +49869,7 @@
       <c r="M46">
         <v>4</v>
       </c>
-      <c r="P46" s="50">
+      <c r="P46">
         <v>5</v>
       </c>
       <c r="T46">
@@ -49867,7 +49878,7 @@
       <c r="U46" s="6">
         <v>3</v>
       </c>
-      <c r="V46" s="50">
+      <c r="V46">
         <v>7</v>
       </c>
       <c r="W46">
@@ -49885,7 +49896,7 @@
       <c r="AA46" s="6">
         <v>26</v>
       </c>
-      <c r="AB46" s="50">
+      <c r="AB46">
         <v>9</v>
       </c>
       <c r="AC46">
@@ -49926,7 +49937,7 @@
       <c r="M47">
         <v>4</v>
       </c>
-      <c r="P47" s="50">
+      <c r="P47">
         <v>5</v>
       </c>
       <c r="T47">
@@ -49935,7 +49946,7 @@
       <c r="U47" s="6">
         <v>4</v>
       </c>
-      <c r="V47" s="50">
+      <c r="V47">
         <v>7</v>
       </c>
       <c r="W47">
@@ -49953,7 +49964,7 @@
       <c r="AA47" s="6">
         <v>45</v>
       </c>
-      <c r="AB47" s="50">
+      <c r="AB47">
         <v>9</v>
       </c>
       <c r="AC47">
@@ -49997,7 +50008,7 @@
       <c r="M48">
         <v>4</v>
       </c>
-      <c r="P48" s="50">
+      <c r="P48">
         <v>5</v>
       </c>
       <c r="T48">
@@ -50006,7 +50017,7 @@
       <c r="U48" s="6">
         <v>4</v>
       </c>
-      <c r="V48" s="50">
+      <c r="V48">
         <v>7</v>
       </c>
       <c r="W48">
@@ -50024,7 +50035,7 @@
       <c r="AA48" s="6">
         <v>31</v>
       </c>
-      <c r="AB48" s="50">
+      <c r="AB48">
         <v>9</v>
       </c>
       <c r="AC48">
@@ -50065,7 +50076,7 @@
       <c r="M49">
         <v>4</v>
       </c>
-      <c r="P49" s="50">
+      <c r="P49">
         <v>5</v>
       </c>
       <c r="T49">
@@ -50074,7 +50085,7 @@
       <c r="U49" s="6">
         <v>9</v>
       </c>
-      <c r="V49" s="50">
+      <c r="V49">
         <v>7</v>
       </c>
       <c r="W49">
@@ -50092,7 +50103,7 @@
       <c r="AA49" s="6">
         <v>40</v>
       </c>
-      <c r="AB49" s="50">
+      <c r="AB49">
         <v>9</v>
       </c>
       <c r="AC49">
@@ -50133,7 +50144,7 @@
       <c r="M50">
         <v>4</v>
       </c>
-      <c r="P50" s="50">
+      <c r="P50">
         <v>5</v>
       </c>
       <c r="T50">
@@ -50142,7 +50153,7 @@
       <c r="U50" s="6">
         <v>6</v>
       </c>
-      <c r="V50" s="50">
+      <c r="V50">
         <v>7</v>
       </c>
       <c r="W50">
@@ -50160,7 +50171,7 @@
       <c r="AA50" s="6">
         <v>41</v>
       </c>
-      <c r="AB50" s="50">
+      <c r="AB50">
         <v>9</v>
       </c>
       <c r="AC50">
@@ -50204,7 +50215,7 @@
       <c r="M51">
         <v>4</v>
       </c>
-      <c r="P51" s="50">
+      <c r="P51">
         <v>5</v>
       </c>
       <c r="T51">
@@ -50213,7 +50224,7 @@
       <c r="U51" s="6">
         <v>8</v>
       </c>
-      <c r="V51" s="50">
+      <c r="V51">
         <v>7</v>
       </c>
       <c r="W51">
@@ -50231,7 +50242,7 @@
       <c r="AA51" s="6">
         <v>8</v>
       </c>
-      <c r="AB51" s="50">
+      <c r="AB51">
         <v>9</v>
       </c>
       <c r="AC51">
@@ -50272,7 +50283,7 @@
       <c r="M52">
         <v>4</v>
       </c>
-      <c r="P52" s="50">
+      <c r="P52">
         <v>5</v>
       </c>
       <c r="T52">
@@ -50281,7 +50292,7 @@
       <c r="U52" s="6">
         <v>9</v>
       </c>
-      <c r="V52" s="50">
+      <c r="V52">
         <v>7</v>
       </c>
       <c r="W52">
@@ -50299,7 +50310,7 @@
       <c r="AA52" s="6">
         <v>41</v>
       </c>
-      <c r="AB52" s="50">
+      <c r="AB52">
         <v>9</v>
       </c>
       <c r="AC52">
@@ -50343,7 +50354,7 @@
       <c r="M53">
         <v>4</v>
       </c>
-      <c r="P53" s="50">
+      <c r="P53">
         <v>5</v>
       </c>
       <c r="T53">
@@ -50352,7 +50363,7 @@
       <c r="U53" s="6">
         <v>6</v>
       </c>
-      <c r="V53" s="50">
+      <c r="V53">
         <v>7</v>
       </c>
       <c r="W53">
@@ -50370,7 +50381,7 @@
       <c r="AA53" s="6">
         <v>10</v>
       </c>
-      <c r="AB53" s="50">
+      <c r="AB53">
         <v>9</v>
       </c>
       <c r="AC53">
@@ -50411,7 +50422,7 @@
       <c r="M54">
         <v>4</v>
       </c>
-      <c r="P54" s="50">
+      <c r="P54">
         <v>5</v>
       </c>
       <c r="T54">
@@ -50420,7 +50431,7 @@
       <c r="U54" s="6">
         <v>4</v>
       </c>
-      <c r="V54" s="50">
+      <c r="V54">
         <v>7</v>
       </c>
       <c r="W54">
@@ -50438,7 +50449,7 @@
       <c r="AA54" s="6">
         <v>20</v>
       </c>
-      <c r="AB54" s="50">
+      <c r="AB54">
         <v>9</v>
       </c>
       <c r="AC54">
@@ -50473,7 +50484,7 @@
       <c r="M55">
         <v>4</v>
       </c>
-      <c r="P55" s="50">
+      <c r="P55">
         <v>5</v>
       </c>
       <c r="T55">
@@ -50482,7 +50493,7 @@
       <c r="U55" s="6">
         <v>3</v>
       </c>
-      <c r="V55" s="50">
+      <c r="V55">
         <v>7</v>
       </c>
       <c r="W55">
@@ -50500,7 +50511,7 @@
       <c r="AA55" s="6">
         <v>14</v>
       </c>
-      <c r="AB55" s="50">
+      <c r="AB55">
         <v>9</v>
       </c>
       <c r="AC55">
@@ -50535,7 +50546,7 @@
       <c r="M56">
         <v>4</v>
       </c>
-      <c r="P56" s="50">
+      <c r="P56">
         <v>5</v>
       </c>
       <c r="T56">
@@ -50544,7 +50555,7 @@
       <c r="U56" s="6">
         <v>7</v>
       </c>
-      <c r="V56" s="50">
+      <c r="V56">
         <v>7</v>
       </c>
       <c r="W56">
@@ -50562,7 +50573,7 @@
       <c r="AA56" s="6">
         <v>10</v>
       </c>
-      <c r="AB56" s="50">
+      <c r="AB56">
         <v>9</v>
       </c>
       <c r="AC56">
@@ -50597,7 +50608,7 @@
       <c r="M57">
         <v>4</v>
       </c>
-      <c r="P57" s="50">
+      <c r="P57">
         <v>5</v>
       </c>
       <c r="T57">
@@ -50606,7 +50617,7 @@
       <c r="U57" s="6">
         <v>7</v>
       </c>
-      <c r="V57" s="50">
+      <c r="V57">
         <v>7</v>
       </c>
       <c r="W57">
@@ -50624,7 +50635,7 @@
       <c r="AA57" s="6">
         <v>6</v>
       </c>
-      <c r="AB57" s="50">
+      <c r="AB57">
         <v>9</v>
       </c>
       <c r="AC57">
@@ -50659,7 +50670,7 @@
       <c r="M58">
         <v>4</v>
       </c>
-      <c r="P58" s="50">
+      <c r="P58">
         <v>5</v>
       </c>
       <c r="T58">
@@ -50668,7 +50679,7 @@
       <c r="U58" s="6">
         <v>4</v>
       </c>
-      <c r="V58" s="50">
+      <c r="V58">
         <v>7</v>
       </c>
       <c r="W58">
@@ -50686,7 +50697,7 @@
       <c r="AA58" s="6">
         <v>35</v>
       </c>
-      <c r="AB58" s="50">
+      <c r="AB58">
         <v>9</v>
       </c>
       <c r="AC58">
@@ -50721,7 +50732,7 @@
       <c r="M59">
         <v>4</v>
       </c>
-      <c r="P59" s="50">
+      <c r="P59">
         <v>5</v>
       </c>
       <c r="T59">
@@ -50730,7 +50741,7 @@
       <c r="U59" s="6">
         <v>9</v>
       </c>
-      <c r="V59" s="50">
+      <c r="V59">
         <v>7</v>
       </c>
       <c r="W59">
@@ -50748,7 +50759,7 @@
       <c r="AA59" s="6">
         <v>12</v>
       </c>
-      <c r="AB59" s="50">
+      <c r="AB59">
         <v>9</v>
       </c>
       <c r="AC59">
@@ -50783,7 +50794,7 @@
       <c r="M60">
         <v>4</v>
       </c>
-      <c r="P60" s="50">
+      <c r="P60">
         <v>5</v>
       </c>
       <c r="T60">
@@ -50792,7 +50803,7 @@
       <c r="U60" s="6">
         <v>12</v>
       </c>
-      <c r="V60" s="50">
+      <c r="V60">
         <v>7</v>
       </c>
       <c r="W60">
@@ -50810,7 +50821,7 @@
       <c r="AA60" s="6">
         <v>47</v>
       </c>
-      <c r="AB60" s="50">
+      <c r="AB60">
         <v>9</v>
       </c>
       <c r="AC60">
@@ -50845,7 +50856,7 @@
       <c r="M61">
         <v>4</v>
       </c>
-      <c r="P61" s="50">
+      <c r="P61">
         <v>5</v>
       </c>
       <c r="T61">
@@ -50854,7 +50865,7 @@
       <c r="U61" s="6">
         <v>5</v>
       </c>
-      <c r="V61" s="50">
+      <c r="V61">
         <v>7</v>
       </c>
       <c r="W61">
@@ -50872,7 +50883,7 @@
       <c r="AA61" s="6">
         <v>12</v>
       </c>
-      <c r="AB61" s="50">
+      <c r="AB61">
         <v>9</v>
       </c>
       <c r="AC61">
@@ -50901,7 +50912,7 @@
       <c r="M62">
         <v>4</v>
       </c>
-      <c r="P62" s="50">
+      <c r="P62">
         <v>5</v>
       </c>
       <c r="T62">
@@ -50910,7 +50921,7 @@
       <c r="U62" s="6">
         <v>6</v>
       </c>
-      <c r="V62" s="50">
+      <c r="V62">
         <v>7</v>
       </c>
       <c r="W62">
@@ -50928,7 +50939,7 @@
       <c r="AA62" s="6">
         <v>47</v>
       </c>
-      <c r="AB62" s="50">
+      <c r="AB62">
         <v>9</v>
       </c>
       <c r="AC62">
@@ -50957,7 +50968,7 @@
       <c r="M63">
         <v>4</v>
       </c>
-      <c r="P63" s="50">
+      <c r="P63">
         <v>5</v>
       </c>
       <c r="T63">
@@ -50966,7 +50977,7 @@
       <c r="U63" s="6">
         <v>10</v>
       </c>
-      <c r="V63" s="50">
+      <c r="V63">
         <v>7</v>
       </c>
       <c r="W63">
@@ -50984,7 +50995,7 @@
       <c r="AA63" s="6">
         <v>43</v>
       </c>
-      <c r="AB63" s="50">
+      <c r="AB63">
         <v>9</v>
       </c>
       <c r="AC63">
@@ -51010,7 +51021,7 @@
       <c r="M64">
         <v>4</v>
       </c>
-      <c r="P64" s="50">
+      <c r="P64">
         <v>5</v>
       </c>
       <c r="T64">
@@ -51019,7 +51030,7 @@
       <c r="U64" s="6">
         <v>6</v>
       </c>
-      <c r="V64" s="50">
+      <c r="V64">
         <v>7</v>
       </c>
       <c r="W64">
@@ -51037,7 +51048,7 @@
       <c r="AA64" s="6">
         <v>24</v>
       </c>
-      <c r="AB64" s="50">
+      <c r="AB64">
         <v>9</v>
       </c>
       <c r="AC64">
@@ -51069,7 +51080,7 @@
       <c r="M65">
         <v>4</v>
       </c>
-      <c r="P65" s="50">
+      <c r="P65">
         <v>5</v>
       </c>
       <c r="T65">
@@ -51078,7 +51089,7 @@
       <c r="U65" s="6">
         <v>12</v>
       </c>
-      <c r="V65" s="50">
+      <c r="V65">
         <v>7</v>
       </c>
       <c r="W65">
@@ -51096,7 +51107,7 @@
       <c r="AA65" s="6">
         <v>18</v>
       </c>
-      <c r="AB65" s="50">
+      <c r="AB65">
         <v>9</v>
       </c>
       <c r="AC65">
@@ -51125,7 +51136,7 @@
       <c r="M66">
         <v>4</v>
       </c>
-      <c r="P66" s="50">
+      <c r="P66">
         <v>5</v>
       </c>
       <c r="T66">
@@ -51134,7 +51145,7 @@
       <c r="U66" s="6">
         <v>5</v>
       </c>
-      <c r="V66" s="50">
+      <c r="V66">
         <v>7</v>
       </c>
       <c r="W66">
@@ -51152,7 +51163,7 @@
       <c r="AA66" s="6">
         <v>5</v>
       </c>
-      <c r="AB66" s="50">
+      <c r="AB66">
         <v>9</v>
       </c>
       <c r="AC66">
@@ -51181,7 +51192,7 @@
       <c r="M67">
         <v>4</v>
       </c>
-      <c r="P67" s="50">
+      <c r="P67">
         <v>5</v>
       </c>
       <c r="T67">
@@ -51190,7 +51201,7 @@
       <c r="U67" s="6">
         <v>5</v>
       </c>
-      <c r="V67" s="50">
+      <c r="V67">
         <v>7</v>
       </c>
       <c r="W67">
@@ -51208,7 +51219,7 @@
       <c r="AA67" s="6">
         <v>50</v>
       </c>
-      <c r="AB67" s="50">
+      <c r="AB67">
         <v>9</v>
       </c>
       <c r="AC67">
@@ -51237,7 +51248,7 @@
       <c r="M68">
         <v>4</v>
       </c>
-      <c r="P68" s="50">
+      <c r="P68">
         <v>5</v>
       </c>
       <c r="T68">
@@ -51246,7 +51257,7 @@
       <c r="U68" s="6">
         <v>7</v>
       </c>
-      <c r="V68" s="50">
+      <c r="V68">
         <v>7</v>
       </c>
       <c r="W68">
@@ -51264,7 +51275,7 @@
       <c r="AA68" s="6">
         <v>34</v>
       </c>
-      <c r="AB68" s="50">
+      <c r="AB68">
         <v>9</v>
       </c>
       <c r="AC68">
@@ -51293,7 +51304,7 @@
       <c r="M69">
         <v>4</v>
       </c>
-      <c r="P69" s="50">
+      <c r="P69">
         <v>5</v>
       </c>
       <c r="T69">
@@ -51302,7 +51313,7 @@
       <c r="U69" s="6">
         <v>14</v>
       </c>
-      <c r="V69" s="50">
+      <c r="V69">
         <v>7</v>
       </c>
       <c r="W69">
@@ -51320,7 +51331,7 @@
       <c r="AA69" s="6">
         <v>11</v>
       </c>
-      <c r="AB69" s="50">
+      <c r="AB69">
         <v>9</v>
       </c>
       <c r="AC69">
@@ -51349,7 +51360,7 @@
       <c r="M70">
         <v>4</v>
       </c>
-      <c r="P70" s="50">
+      <c r="P70">
         <v>5</v>
       </c>
       <c r="T70">
@@ -51358,7 +51369,7 @@
       <c r="U70" s="6">
         <v>5</v>
       </c>
-      <c r="V70" s="50">
+      <c r="V70">
         <v>7</v>
       </c>
       <c r="W70">
@@ -51376,7 +51387,7 @@
       <c r="AA70" s="6">
         <v>51</v>
       </c>
-      <c r="AB70" s="50">
+      <c r="AB70">
         <v>9</v>
       </c>
       <c r="AC70">
@@ -51405,7 +51416,7 @@
       <c r="M71">
         <v>4</v>
       </c>
-      <c r="P71" s="50">
+      <c r="P71">
         <v>5</v>
       </c>
       <c r="T71">
@@ -51414,7 +51425,7 @@
       <c r="U71" s="6">
         <v>8</v>
       </c>
-      <c r="V71" s="50">
+      <c r="V71">
         <v>7</v>
       </c>
       <c r="W71">
@@ -51432,7 +51443,7 @@
       <c r="AA71" s="6">
         <v>52</v>
       </c>
-      <c r="AB71" s="50">
+      <c r="AB71">
         <v>9</v>
       </c>
       <c r="AC71">
@@ -51461,7 +51472,7 @@
       <c r="M72">
         <v>4</v>
       </c>
-      <c r="P72" s="50">
+      <c r="P72">
         <v>5</v>
       </c>
       <c r="T72">
@@ -51470,7 +51481,7 @@
       <c r="U72" s="6">
         <v>4</v>
       </c>
-      <c r="V72" s="50">
+      <c r="V72">
         <v>7</v>
       </c>
       <c r="W72">
@@ -51488,7 +51499,7 @@
       <c r="AA72" s="6">
         <v>12</v>
       </c>
-      <c r="AB72" s="50">
+      <c r="AB72">
         <v>9</v>
       </c>
       <c r="AC72">
@@ -51517,7 +51528,7 @@
       <c r="M73">
         <v>4</v>
       </c>
-      <c r="P73" s="50">
+      <c r="P73">
         <v>5</v>
       </c>
       <c r="T73">
@@ -51526,7 +51537,7 @@
       <c r="U73" s="6">
         <v>5</v>
       </c>
-      <c r="V73" s="50">
+      <c r="V73">
         <v>7</v>
       </c>
       <c r="W73">
@@ -51544,7 +51555,7 @@
       <c r="AA73" s="6">
         <v>20</v>
       </c>
-      <c r="AB73" s="50">
+      <c r="AB73">
         <v>9</v>
       </c>
       <c r="AC73">
@@ -51573,7 +51584,7 @@
       <c r="M74">
         <v>4</v>
       </c>
-      <c r="P74" s="50">
+      <c r="P74">
         <v>5</v>
       </c>
       <c r="T74">
@@ -51582,7 +51593,7 @@
       <c r="U74" s="6">
         <v>6</v>
       </c>
-      <c r="V74" s="50">
+      <c r="V74">
         <v>7</v>
       </c>
       <c r="W74">
@@ -51600,7 +51611,7 @@
       <c r="AA74" s="6">
         <v>36</v>
       </c>
-      <c r="AB74" s="50">
+      <c r="AB74">
         <v>9</v>
       </c>
       <c r="AC74">
@@ -51629,7 +51640,7 @@
       <c r="M75">
         <v>4</v>
       </c>
-      <c r="P75" s="50">
+      <c r="P75">
         <v>5</v>
       </c>
       <c r="T75">
@@ -51638,7 +51649,7 @@
       <c r="U75" s="6">
         <v>10</v>
       </c>
-      <c r="V75" s="50">
+      <c r="V75">
         <v>7</v>
       </c>
       <c r="W75">
@@ -51656,7 +51667,7 @@
       <c r="AA75" s="6">
         <v>26</v>
       </c>
-      <c r="AB75" s="50">
+      <c r="AB75">
         <v>9</v>
       </c>
       <c r="AC75">
@@ -51685,7 +51696,7 @@
       <c r="M76">
         <v>4</v>
       </c>
-      <c r="P76" s="50">
+      <c r="P76">
         <v>5</v>
       </c>
       <c r="T76">
@@ -51694,7 +51705,7 @@
       <c r="U76" s="6">
         <v>4</v>
       </c>
-      <c r="V76" s="50">
+      <c r="V76">
         <v>7</v>
       </c>
       <c r="W76">
@@ -51712,7 +51723,7 @@
       <c r="AA76" s="6">
         <v>22</v>
       </c>
-      <c r="AB76" s="50">
+      <c r="AB76">
         <v>9</v>
       </c>
       <c r="AC76">
@@ -51741,7 +51752,7 @@
       <c r="M77">
         <v>4</v>
       </c>
-      <c r="P77" s="50">
+      <c r="P77">
         <v>5</v>
       </c>
       <c r="T77">
@@ -51750,7 +51761,7 @@
       <c r="U77" s="6">
         <v>9</v>
       </c>
-      <c r="V77" s="50">
+      <c r="V77">
         <v>7</v>
       </c>
       <c r="W77">
@@ -51768,7 +51779,7 @@
       <c r="AA77" s="6">
         <v>55</v>
       </c>
-      <c r="AB77" s="50">
+      <c r="AB77">
         <v>9</v>
       </c>
       <c r="AC77">
@@ -51797,7 +51808,7 @@
       <c r="M78">
         <v>4</v>
       </c>
-      <c r="P78" s="50">
+      <c r="P78">
         <v>5</v>
       </c>
       <c r="T78">
@@ -51806,7 +51817,7 @@
       <c r="U78" s="6">
         <v>5</v>
       </c>
-      <c r="V78" s="50">
+      <c r="V78">
         <v>7</v>
       </c>
       <c r="W78">
@@ -51824,7 +51835,7 @@
       <c r="AA78" s="6">
         <v>35</v>
       </c>
-      <c r="AB78" s="50">
+      <c r="AB78">
         <v>9</v>
       </c>
       <c r="AC78">
@@ -51853,7 +51864,7 @@
       <c r="M79">
         <v>4</v>
       </c>
-      <c r="P79" s="50">
+      <c r="P79">
         <v>5</v>
       </c>
       <c r="T79">
@@ -51862,7 +51873,7 @@
       <c r="U79" s="6">
         <v>5</v>
       </c>
-      <c r="V79" s="50">
+      <c r="V79">
         <v>7</v>
       </c>
       <c r="W79">
@@ -51880,7 +51891,7 @@
       <c r="AA79" s="6">
         <v>10</v>
       </c>
-      <c r="AB79" s="50">
+      <c r="AB79">
         <v>9</v>
       </c>
       <c r="AC79">
@@ -51909,7 +51920,7 @@
       <c r="M80">
         <v>4</v>
       </c>
-      <c r="P80" s="50">
+      <c r="P80">
         <v>5</v>
       </c>
       <c r="T80">
@@ -51918,7 +51929,7 @@
       <c r="U80" s="6">
         <v>6</v>
       </c>
-      <c r="V80" s="50">
+      <c r="V80">
         <v>7</v>
       </c>
       <c r="W80">
@@ -51936,7 +51947,7 @@
       <c r="AA80" s="6">
         <v>31</v>
       </c>
-      <c r="AB80" s="50">
+      <c r="AB80">
         <v>9</v>
       </c>
       <c r="AC80">
@@ -51965,7 +51976,7 @@
       <c r="M81">
         <v>4</v>
       </c>
-      <c r="P81" s="50">
+      <c r="P81">
         <v>5</v>
       </c>
       <c r="T81">
@@ -51974,7 +51985,7 @@
       <c r="U81" s="6">
         <v>4</v>
       </c>
-      <c r="V81" s="50">
+      <c r="V81">
         <v>7</v>
       </c>
       <c r="W81">
@@ -51992,7 +52003,7 @@
       <c r="AA81" s="6">
         <v>60</v>
       </c>
-      <c r="AB81" s="50">
+      <c r="AB81">
         <v>9</v>
       </c>
       <c r="AC81">
@@ -52024,7 +52035,7 @@
       <c r="M82">
         <v>4</v>
       </c>
-      <c r="P82" s="50">
+      <c r="P82">
         <v>5</v>
       </c>
       <c r="T82">
@@ -52033,7 +52044,7 @@
       <c r="U82" s="6">
         <v>6</v>
       </c>
-      <c r="V82" s="50">
+      <c r="V82">
         <v>7</v>
       </c>
       <c r="W82">
@@ -52051,7 +52062,7 @@
       <c r="AA82" s="6">
         <v>20</v>
       </c>
-      <c r="AB82" s="50">
+      <c r="AB82">
         <v>9</v>
       </c>
       <c r="AC82">
@@ -52080,10 +52091,10 @@
       <c r="M83">
         <v>4</v>
       </c>
-      <c r="P83" s="50">
-        <v>5</v>
-      </c>
-      <c r="V83" s="50">
+      <c r="P83">
+        <v>5</v>
+      </c>
+      <c r="V83">
         <v>7</v>
       </c>
       <c r="W83">
@@ -52101,7 +52112,7 @@
       <c r="AA83" s="6">
         <v>32</v>
       </c>
-      <c r="AB83" s="50">
+      <c r="AB83">
         <v>9</v>
       </c>
       <c r="AC83">
@@ -52130,10 +52141,10 @@
       <c r="M84">
         <v>4</v>
       </c>
-      <c r="P84" s="50">
-        <v>5</v>
-      </c>
-      <c r="V84" s="50">
+      <c r="P84">
+        <v>5</v>
+      </c>
+      <c r="V84">
         <v>7</v>
       </c>
       <c r="W84">
@@ -52151,7 +52162,7 @@
       <c r="AA84" s="6">
         <v>30</v>
       </c>
-      <c r="AB84" s="50">
+      <c r="AB84">
         <v>9</v>
       </c>
       <c r="AC84">
@@ -52183,10 +52194,10 @@
       <c r="M85">
         <v>4</v>
       </c>
-      <c r="P85" s="50">
-        <v>5</v>
-      </c>
-      <c r="V85" s="50">
+      <c r="P85">
+        <v>5</v>
+      </c>
+      <c r="V85">
         <v>7</v>
       </c>
       <c r="W85">
@@ -52204,7 +52215,7 @@
       <c r="AA85" s="6">
         <v>26</v>
       </c>
-      <c r="AB85" s="50">
+      <c r="AB85">
         <v>9</v>
       </c>
       <c r="AC85">
@@ -52233,10 +52244,10 @@
       <c r="M86">
         <v>4</v>
       </c>
-      <c r="P86" s="50">
-        <v>5</v>
-      </c>
-      <c r="V86" s="50">
+      <c r="P86">
+        <v>5</v>
+      </c>
+      <c r="V86">
         <v>7</v>
       </c>
       <c r="W86">
@@ -52248,7 +52259,7 @@
       <c r="Y86">
         <v>8</v>
       </c>
-      <c r="AB86" s="50">
+      <c r="AB86">
         <v>9</v>
       </c>
       <c r="AC86">
@@ -52277,10 +52288,10 @@
       <c r="M87">
         <v>4</v>
       </c>
-      <c r="P87" s="50">
-        <v>5</v>
-      </c>
-      <c r="V87" s="50">
+      <c r="P87">
+        <v>5</v>
+      </c>
+      <c r="V87">
         <v>7</v>
       </c>
       <c r="W87">
@@ -52292,7 +52303,7 @@
       <c r="Y87">
         <v>8</v>
       </c>
-      <c r="AB87" s="50">
+      <c r="AB87">
         <v>9</v>
       </c>
       <c r="AC87">
@@ -52321,10 +52332,10 @@
       <c r="M88">
         <v>4</v>
       </c>
-      <c r="P88" s="50">
-        <v>5</v>
-      </c>
-      <c r="V88" s="50">
+      <c r="P88">
+        <v>5</v>
+      </c>
+      <c r="V88">
         <v>7</v>
       </c>
       <c r="W88">
@@ -52336,7 +52347,7 @@
       <c r="Y88">
         <v>8</v>
       </c>
-      <c r="AB88" s="50">
+      <c r="AB88">
         <v>9</v>
       </c>
       <c r="AC88">
@@ -52365,10 +52376,10 @@
       <c r="M89">
         <v>4</v>
       </c>
-      <c r="P89" s="50">
-        <v>5</v>
-      </c>
-      <c r="V89" s="50">
+      <c r="P89">
+        <v>5</v>
+      </c>
+      <c r="V89">
         <v>7</v>
       </c>
       <c r="W89">
@@ -52380,7 +52391,7 @@
       <c r="Y89">
         <v>8</v>
       </c>
-      <c r="AB89" s="50">
+      <c r="AB89">
         <v>9</v>
       </c>
       <c r="AC89">
@@ -52409,10 +52420,10 @@
       <c r="M90">
         <v>4</v>
       </c>
-      <c r="P90" s="50">
-        <v>5</v>
-      </c>
-      <c r="V90" s="50">
+      <c r="P90">
+        <v>5</v>
+      </c>
+      <c r="V90">
         <v>7</v>
       </c>
       <c r="W90">
@@ -52424,7 +52435,7 @@
       <c r="Y90">
         <v>8</v>
       </c>
-      <c r="AB90" s="50">
+      <c r="AB90">
         <v>9</v>
       </c>
       <c r="AC90">
@@ -52453,10 +52464,10 @@
       <c r="M91">
         <v>4</v>
       </c>
-      <c r="P91" s="50">
-        <v>5</v>
-      </c>
-      <c r="V91" s="50">
+      <c r="P91">
+        <v>5</v>
+      </c>
+      <c r="V91">
         <v>7</v>
       </c>
       <c r="W91">
@@ -52468,7 +52479,7 @@
       <c r="Y91">
         <v>8</v>
       </c>
-      <c r="AB91" s="50">
+      <c r="AB91">
         <v>9</v>
       </c>
       <c r="AC91">
@@ -52497,10 +52508,10 @@
       <c r="M92">
         <v>4</v>
       </c>
-      <c r="P92" s="50">
-        <v>5</v>
-      </c>
-      <c r="V92" s="50">
+      <c r="P92">
+        <v>5</v>
+      </c>
+      <c r="V92">
         <v>7</v>
       </c>
       <c r="W92">
@@ -52512,7 +52523,7 @@
       <c r="Y92">
         <v>8</v>
       </c>
-      <c r="AB92" s="50">
+      <c r="AB92">
         <v>9</v>
       </c>
       <c r="AC92">
@@ -52541,10 +52552,10 @@
       <c r="M93">
         <v>4</v>
       </c>
-      <c r="P93" s="50">
-        <v>5</v>
-      </c>
-      <c r="V93" s="50">
+      <c r="P93">
+        <v>5</v>
+      </c>
+      <c r="V93">
         <v>7</v>
       </c>
       <c r="W93">
@@ -52556,7 +52567,7 @@
       <c r="Y93">
         <v>8</v>
       </c>
-      <c r="AB93" s="50">
+      <c r="AB93">
         <v>9</v>
       </c>
       <c r="AC93">
@@ -52585,10 +52596,10 @@
       <c r="M94">
         <v>4</v>
       </c>
-      <c r="P94" s="50">
-        <v>5</v>
-      </c>
-      <c r="V94" s="50">
+      <c r="P94">
+        <v>5</v>
+      </c>
+      <c r="V94">
         <v>7</v>
       </c>
       <c r="W94">
@@ -52600,7 +52611,7 @@
       <c r="Y94">
         <v>8</v>
       </c>
-      <c r="AB94" s="50">
+      <c r="AB94">
         <v>9</v>
       </c>
       <c r="AC94">
@@ -52629,10 +52640,10 @@
       <c r="M95">
         <v>4</v>
       </c>
-      <c r="P95" s="50">
-        <v>5</v>
-      </c>
-      <c r="V95" s="50">
+      <c r="P95">
+        <v>5</v>
+      </c>
+      <c r="V95">
         <v>7</v>
       </c>
       <c r="W95">
@@ -52644,7 +52655,7 @@
       <c r="Y95">
         <v>8</v>
       </c>
-      <c r="AB95" s="50">
+      <c r="AB95">
         <v>9</v>
       </c>
       <c r="AC95">
@@ -52673,10 +52684,10 @@
       <c r="M96">
         <v>4</v>
       </c>
-      <c r="P96" s="50">
-        <v>5</v>
-      </c>
-      <c r="V96" s="50">
+      <c r="P96">
+        <v>5</v>
+      </c>
+      <c r="V96">
         <v>7</v>
       </c>
       <c r="W96">
@@ -52688,7 +52699,7 @@
       <c r="Y96">
         <v>8</v>
       </c>
-      <c r="AB96" s="50">
+      <c r="AB96">
         <v>9</v>
       </c>
       <c r="AC96">
@@ -52717,10 +52728,10 @@
       <c r="M97">
         <v>4</v>
       </c>
-      <c r="P97" s="50">
-        <v>5</v>
-      </c>
-      <c r="V97" s="50">
+      <c r="P97">
+        <v>5</v>
+      </c>
+      <c r="V97">
         <v>7</v>
       </c>
       <c r="W97">
@@ -52732,7 +52743,7 @@
       <c r="Y97">
         <v>8</v>
       </c>
-      <c r="AB97" s="50">
+      <c r="AB97">
         <v>9</v>
       </c>
       <c r="AC97">
@@ -52761,10 +52772,10 @@
       <c r="M98">
         <v>4</v>
       </c>
-      <c r="P98" s="50">
-        <v>5</v>
-      </c>
-      <c r="V98" s="50">
+      <c r="P98">
+        <v>5</v>
+      </c>
+      <c r="V98">
         <v>7</v>
       </c>
       <c r="W98">
@@ -52776,7 +52787,7 @@
       <c r="Y98">
         <v>8</v>
       </c>
-      <c r="AB98" s="50">
+      <c r="AB98">
         <v>9</v>
       </c>
       <c r="AC98">
@@ -52805,10 +52816,10 @@
       <c r="M99">
         <v>4</v>
       </c>
-      <c r="P99" s="50">
-        <v>5</v>
-      </c>
-      <c r="V99" s="50">
+      <c r="P99">
+        <v>5</v>
+      </c>
+      <c r="V99">
         <v>7</v>
       </c>
       <c r="W99">
@@ -52820,7 +52831,7 @@
       <c r="Y99">
         <v>8</v>
       </c>
-      <c r="AB99" s="50">
+      <c r="AB99">
         <v>9</v>
       </c>
       <c r="AC99">
@@ -52849,10 +52860,10 @@
       <c r="M100">
         <v>4</v>
       </c>
-      <c r="P100" s="50">
-        <v>5</v>
-      </c>
-      <c r="V100" s="50">
+      <c r="P100">
+        <v>5</v>
+      </c>
+      <c r="V100">
         <v>7</v>
       </c>
       <c r="W100">
@@ -52864,7 +52875,7 @@
       <c r="Y100">
         <v>8</v>
       </c>
-      <c r="AB100" s="50">
+      <c r="AB100">
         <v>9</v>
       </c>
       <c r="AC100">
@@ -52896,10 +52907,10 @@
       <c r="M101">
         <v>4</v>
       </c>
-      <c r="P101" s="50">
-        <v>5</v>
-      </c>
-      <c r="V101" s="50">
+      <c r="P101">
+        <v>5</v>
+      </c>
+      <c r="V101">
         <v>7</v>
       </c>
       <c r="W101">
@@ -52911,7 +52922,7 @@
       <c r="Y101">
         <v>8</v>
       </c>
-      <c r="AB101" s="50">
+      <c r="AB101">
         <v>9</v>
       </c>
       <c r="AC101">
@@ -52937,10 +52948,10 @@
       <c r="M102">
         <v>4</v>
       </c>
-      <c r="P102" s="50">
-        <v>5</v>
-      </c>
-      <c r="V102" s="50">
+      <c r="P102">
+        <v>5</v>
+      </c>
+      <c r="V102">
         <v>7</v>
       </c>
       <c r="W102">
@@ -52952,7 +52963,7 @@
       <c r="Y102">
         <v>8</v>
       </c>
-      <c r="AB102" s="50">
+      <c r="AB102">
         <v>9</v>
       </c>
       <c r="AC102">
@@ -52978,10 +52989,10 @@
       <c r="M103">
         <v>4</v>
       </c>
-      <c r="P103" s="50">
-        <v>5</v>
-      </c>
-      <c r="V103" s="50">
+      <c r="P103">
+        <v>5</v>
+      </c>
+      <c r="V103">
         <v>7</v>
       </c>
       <c r="W103">
@@ -52993,7 +53004,7 @@
       <c r="Y103">
         <v>8</v>
       </c>
-      <c r="AB103" s="50">
+      <c r="AB103">
         <v>9</v>
       </c>
       <c r="AC103">
@@ -53025,10 +53036,10 @@
       <c r="M104">
         <v>4</v>
       </c>
-      <c r="P104" s="50">
-        <v>5</v>
-      </c>
-      <c r="V104" s="50">
+      <c r="P104">
+        <v>5</v>
+      </c>
+      <c r="V104">
         <v>7</v>
       </c>
       <c r="W104">
@@ -53040,7 +53051,7 @@
       <c r="Y104">
         <v>8</v>
       </c>
-      <c r="AB104" s="50">
+      <c r="AB104">
         <v>9</v>
       </c>
       <c r="AC104">
@@ -53069,10 +53080,10 @@
       <c r="M105">
         <v>4</v>
       </c>
-      <c r="P105" s="50">
-        <v>5</v>
-      </c>
-      <c r="V105" s="50">
+      <c r="P105">
+        <v>5</v>
+      </c>
+      <c r="V105">
         <v>7</v>
       </c>
       <c r="W105">
@@ -53084,7 +53095,7 @@
       <c r="Y105">
         <v>8</v>
       </c>
-      <c r="AB105" s="50">
+      <c r="AB105">
         <v>9</v>
       </c>
       <c r="AC105">
@@ -53116,10 +53127,10 @@
       <c r="M106">
         <v>4</v>
       </c>
-      <c r="P106" s="50">
-        <v>5</v>
-      </c>
-      <c r="V106" s="50">
+      <c r="P106">
+        <v>5</v>
+      </c>
+      <c r="V106">
         <v>7</v>
       </c>
       <c r="W106">
@@ -53131,7 +53142,7 @@
       <c r="Y106">
         <v>8</v>
       </c>
-      <c r="AB106" s="50">
+      <c r="AB106">
         <v>9</v>
       </c>
       <c r="AC106">
@@ -53154,10 +53165,10 @@
       <c r="M107">
         <v>4</v>
       </c>
-      <c r="P107" s="50">
-        <v>5</v>
-      </c>
-      <c r="V107" s="50">
+      <c r="P107">
+        <v>5</v>
+      </c>
+      <c r="V107">
         <v>7</v>
       </c>
       <c r="W107">
@@ -53169,7 +53180,7 @@
       <c r="Y107">
         <v>8</v>
       </c>
-      <c r="AB107" s="50">
+      <c r="AB107">
         <v>9</v>
       </c>
       <c r="AC107">
@@ -53192,10 +53203,10 @@
       <c r="M108">
         <v>4</v>
       </c>
-      <c r="P108" s="50">
-        <v>5</v>
-      </c>
-      <c r="V108" s="50">
+      <c r="P108">
+        <v>5</v>
+      </c>
+      <c r="V108">
         <v>7</v>
       </c>
       <c r="W108">
@@ -53207,7 +53218,7 @@
       <c r="Y108">
         <v>8</v>
       </c>
-      <c r="AB108" s="50">
+      <c r="AB108">
         <v>9</v>
       </c>
       <c r="AC108">
@@ -53230,10 +53241,10 @@
       <c r="M109">
         <v>4</v>
       </c>
-      <c r="P109" s="50">
-        <v>5</v>
-      </c>
-      <c r="V109" s="50">
+      <c r="P109">
+        <v>5</v>
+      </c>
+      <c r="V109">
         <v>7</v>
       </c>
       <c r="W109">
@@ -53245,7 +53256,7 @@
       <c r="Y109">
         <v>8</v>
       </c>
-      <c r="AB109" s="50">
+      <c r="AB109">
         <v>9</v>
       </c>
       <c r="AC109">
@@ -53268,10 +53279,10 @@
       <c r="M110">
         <v>4</v>
       </c>
-      <c r="P110" s="50">
-        <v>5</v>
-      </c>
-      <c r="V110" s="50">
+      <c r="P110">
+        <v>5</v>
+      </c>
+      <c r="V110">
         <v>7</v>
       </c>
       <c r="W110">
@@ -53283,7 +53294,7 @@
       <c r="Y110">
         <v>8</v>
       </c>
-      <c r="AB110" s="50">
+      <c r="AB110">
         <v>9</v>
       </c>
       <c r="AC110">
@@ -53306,10 +53317,10 @@
       <c r="M111">
         <v>4</v>
       </c>
-      <c r="P111" s="50">
-        <v>5</v>
-      </c>
-      <c r="V111" s="50">
+      <c r="P111">
+        <v>5</v>
+      </c>
+      <c r="V111">
         <v>7</v>
       </c>
       <c r="W111">
@@ -53321,7 +53332,7 @@
       <c r="Y111">
         <v>8</v>
       </c>
-      <c r="AB111" s="50">
+      <c r="AB111">
         <v>9</v>
       </c>
       <c r="AC111">
@@ -53344,10 +53355,10 @@
       <c r="M112">
         <v>4</v>
       </c>
-      <c r="P112" s="50">
-        <v>5</v>
-      </c>
-      <c r="V112" s="50">
+      <c r="P112">
+        <v>5</v>
+      </c>
+      <c r="V112">
         <v>7</v>
       </c>
       <c r="W112">
@@ -53359,7 +53370,7 @@
       <c r="Y112">
         <v>8</v>
       </c>
-      <c r="AB112" s="50">
+      <c r="AB112">
         <v>9</v>
       </c>
       <c r="AC112">
@@ -53382,10 +53393,10 @@
       <c r="M113">
         <v>4</v>
       </c>
-      <c r="P113" s="50">
-        <v>5</v>
-      </c>
-      <c r="V113" s="50">
+      <c r="P113">
+        <v>5</v>
+      </c>
+      <c r="V113">
         <v>7</v>
       </c>
       <c r="W113">
@@ -53397,7 +53408,7 @@
       <c r="Y113">
         <v>8</v>
       </c>
-      <c r="AB113" s="50">
+      <c r="AB113">
         <v>9</v>
       </c>
       <c r="AC113">
@@ -53420,10 +53431,10 @@
       <c r="M114">
         <v>4</v>
       </c>
-      <c r="P114" s="50">
-        <v>5</v>
-      </c>
-      <c r="V114" s="50">
+      <c r="P114">
+        <v>5</v>
+      </c>
+      <c r="V114">
         <v>7</v>
       </c>
       <c r="W114">
@@ -53435,7 +53446,7 @@
       <c r="Y114">
         <v>8</v>
       </c>
-      <c r="AB114" s="50">
+      <c r="AB114">
         <v>9</v>
       </c>
       <c r="AC114">
@@ -53458,10 +53469,10 @@
       <c r="M115">
         <v>4</v>
       </c>
-      <c r="P115" s="50">
-        <v>5</v>
-      </c>
-      <c r="V115" s="50">
+      <c r="P115">
+        <v>5</v>
+      </c>
+      <c r="V115">
         <v>7</v>
       </c>
       <c r="W115">
@@ -53473,7 +53484,7 @@
       <c r="Y115">
         <v>8</v>
       </c>
-      <c r="AB115" s="50">
+      <c r="AB115">
         <v>9</v>
       </c>
       <c r="AC115">
@@ -53496,10 +53507,10 @@
       <c r="M116">
         <v>4</v>
       </c>
-      <c r="P116" s="50">
-        <v>5</v>
-      </c>
-      <c r="V116" s="50">
+      <c r="P116">
+        <v>5</v>
+      </c>
+      <c r="V116">
         <v>7</v>
       </c>
       <c r="W116">
@@ -53511,7 +53522,7 @@
       <c r="Y116">
         <v>8</v>
       </c>
-      <c r="AB116" s="50">
+      <c r="AB116">
         <v>9</v>
       </c>
       <c r="AE116">
@@ -53528,10 +53539,10 @@
       <c r="M117">
         <v>4</v>
       </c>
-      <c r="P117" s="50">
-        <v>5</v>
-      </c>
-      <c r="V117" s="50">
+      <c r="P117">
+        <v>5</v>
+      </c>
+      <c r="V117">
         <v>7</v>
       </c>
       <c r="W117">
@@ -53543,7 +53554,7 @@
       <c r="Y117">
         <v>8</v>
       </c>
-      <c r="AB117" s="50">
+      <c r="AB117">
         <v>9</v>
       </c>
       <c r="AE117">
@@ -53560,10 +53571,10 @@
       <c r="M118">
         <v>4</v>
       </c>
-      <c r="P118" s="50">
-        <v>5</v>
-      </c>
-      <c r="V118" s="50">
+      <c r="P118">
+        <v>5</v>
+      </c>
+      <c r="V118">
         <v>7</v>
       </c>
       <c r="W118">
@@ -53575,7 +53586,7 @@
       <c r="Y118">
         <v>8</v>
       </c>
-      <c r="AB118" s="50">
+      <c r="AB118">
         <v>9</v>
       </c>
       <c r="AE118">
@@ -53592,10 +53603,10 @@
       <c r="M119">
         <v>4</v>
       </c>
-      <c r="P119" s="50">
-        <v>5</v>
-      </c>
-      <c r="V119" s="50">
+      <c r="P119">
+        <v>5</v>
+      </c>
+      <c r="V119">
         <v>7</v>
       </c>
       <c r="W119">
@@ -53607,7 +53618,7 @@
       <c r="Y119">
         <v>8</v>
       </c>
-      <c r="AB119" s="50">
+      <c r="AB119">
         <v>9</v>
       </c>
       <c r="AE119">
@@ -53624,10 +53635,10 @@
       <c r="M120">
         <v>4</v>
       </c>
-      <c r="P120" s="50">
-        <v>5</v>
-      </c>
-      <c r="V120" s="50">
+      <c r="P120">
+        <v>5</v>
+      </c>
+      <c r="V120">
         <v>7</v>
       </c>
       <c r="W120">
@@ -53639,7 +53650,7 @@
       <c r="Y120">
         <v>8</v>
       </c>
-      <c r="AB120" s="50">
+      <c r="AB120">
         <v>9</v>
       </c>
       <c r="AE120">
@@ -53656,10 +53667,10 @@
       <c r="M121">
         <v>4</v>
       </c>
-      <c r="P121" s="50">
-        <v>5</v>
-      </c>
-      <c r="V121" s="50">
+      <c r="P121">
+        <v>5</v>
+      </c>
+      <c r="V121">
         <v>7</v>
       </c>
       <c r="W121">
@@ -53671,7 +53682,7 @@
       <c r="Y121">
         <v>8</v>
       </c>
-      <c r="AB121" s="50">
+      <c r="AB121">
         <v>9</v>
       </c>
       <c r="AE121">
@@ -53688,10 +53699,10 @@
       <c r="M122">
         <v>4</v>
       </c>
-      <c r="P122" s="50">
-        <v>5</v>
-      </c>
-      <c r="V122" s="50">
+      <c r="P122">
+        <v>5</v>
+      </c>
+      <c r="V122">
         <v>7</v>
       </c>
       <c r="W122">
@@ -53703,7 +53714,7 @@
       <c r="Y122">
         <v>8</v>
       </c>
-      <c r="AB122" s="50">
+      <c r="AB122">
         <v>9</v>
       </c>
       <c r="AE122">
@@ -53720,10 +53731,10 @@
       <c r="M123">
         <v>4</v>
       </c>
-      <c r="P123" s="50">
-        <v>5</v>
-      </c>
-      <c r="V123" s="50">
+      <c r="P123">
+        <v>5</v>
+      </c>
+      <c r="V123">
         <v>7</v>
       </c>
       <c r="W123">
@@ -53735,7 +53746,7 @@
       <c r="Y123">
         <v>8</v>
       </c>
-      <c r="AB123" s="50">
+      <c r="AB123">
         <v>9</v>
       </c>
       <c r="AE123">
@@ -53752,10 +53763,10 @@
       <c r="M124">
         <v>4</v>
       </c>
-      <c r="P124" s="50">
-        <v>5</v>
-      </c>
-      <c r="V124" s="50">
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="V124">
         <v>7</v>
       </c>
       <c r="W124">
@@ -53767,7 +53778,7 @@
       <c r="Y124">
         <v>8</v>
       </c>
-      <c r="AB124" s="50">
+      <c r="AB124">
         <v>9</v>
       </c>
       <c r="AE124">
@@ -53784,10 +53795,10 @@
       <c r="M125">
         <v>4</v>
       </c>
-      <c r="P125" s="50">
-        <v>5</v>
-      </c>
-      <c r="V125" s="50">
+      <c r="P125">
+        <v>5</v>
+      </c>
+      <c r="V125">
         <v>7</v>
       </c>
       <c r="W125">
@@ -53799,7 +53810,7 @@
       <c r="Y125">
         <v>8</v>
       </c>
-      <c r="AB125" s="50">
+      <c r="AB125">
         <v>9</v>
       </c>
       <c r="AE125">
@@ -53816,10 +53827,10 @@
       <c r="M126">
         <v>4</v>
       </c>
-      <c r="P126" s="50">
-        <v>5</v>
-      </c>
-      <c r="V126" s="50">
+      <c r="P126">
+        <v>5</v>
+      </c>
+      <c r="V126">
         <v>7</v>
       </c>
       <c r="W126">
@@ -53831,7 +53842,7 @@
       <c r="Y126">
         <v>8</v>
       </c>
-      <c r="AB126" s="50">
+      <c r="AB126">
         <v>9</v>
       </c>
       <c r="AE126">
@@ -53848,8 +53859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A95AE59-CBE5-4A6B-B2CA-C0174A2A8D84}">
   <dimension ref="A1:AZ180"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3:AE180"/>
+    <sheetView topLeftCell="L141" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AE151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -63283,8 +63294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC349842-40B6-4F61-BCF1-39A38F80D54B}">
   <dimension ref="A1:AZ134"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1:AZ9"/>
+    <sheetView topLeftCell="O7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3:AE51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PopfreSurvey/Cottonwood Survey.xlsx
+++ b/PopfreSurvey/Cottonwood Survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qrm32\Documents\GitHub\Thesis\Thesis1\PopfreSurvey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1223302D-5A9B-477B-96BC-449EAE51D257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9529A017-2BCD-40CF-982B-0EACA5A803FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="711" firstSheet="3" activeTab="3" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="711" firstSheet="3" activeTab="5" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="LB2023sites" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1887" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="139">
   <si>
     <t>LB1</t>
   </si>
@@ -474,6 +474,21 @@
   <si>
     <t>mean</t>
   </si>
+  <si>
+    <t>BRAP</t>
+  </si>
+  <si>
+    <t>Childs</t>
+  </si>
+  <si>
+    <t>Fall 2023</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
 </sst>
 </file>
 
@@ -527,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +580,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -988,15 +1009,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -1067,17 +1089,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
     <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA5A5A5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -5158,6 +5187,869 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Mean Densities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Fall 2023</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'For R'!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>LB1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LB2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LB3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LB4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LB5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LB6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LB7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LB8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LB9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LB10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>C6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>C7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>C8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>C9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>C10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$B$6:$U$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.2292993630573248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5477707006369426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2941176470588234</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3602264685067231</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4154281670205235</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1942675159235667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8216560509554141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.9355980184005661</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2173913043478262</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3378378378378379</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2273588480485032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3602264685067231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.789808917197451</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0863411181882512</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.2643312101910826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.323425336164188</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.490445859872608</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.244161358811041</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.987261146496813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D273-442C-B9FF-8D554BCB35B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Spring 2024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'For R'!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>LB1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LB2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LB3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LB4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LB5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LB6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LB7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LB8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LB9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LB10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>C6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>C7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>C8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>C9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>C10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$B$15:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.63694267515923564</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5477707006369426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.70242214532872</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3694267515923562</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2738853503184713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63694267515923564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3089171974522293</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0679405520169851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.255198487712665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68918918918918914</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2273588480485032</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.3602264685067231</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17.197452229299362</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5109695682944091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4235668789808917</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6709129511677281</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.687898089171973</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.490445859872615</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.452229299363054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D273-442C-B9FF-8D554BCB35B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Fall 2024</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'For R'!$B$1:$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>LB1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LB2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LB3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LB4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LB5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LB6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>LB7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>LB8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>LB9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LB10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>C1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>C2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>C3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>C4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>C5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>C6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>C7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>C8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>C9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>C10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'For R'!$B$24:$U$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5477707006369426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.006920415224913</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.586666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1139419674451521</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42462845010615707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9617834394904455E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15923566878980891</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.75725406935598</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.1153119092627595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41891891891891891</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6839712012125801E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4062278839348901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95541401273885351</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9723991507430996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0700636942675157</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.28308563340410475</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42.038216560509554</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.163481953290871</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.605095541401273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D273-442C-B9FF-8D554BCB35B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="110023135"/>
+        <c:axId val="110015455"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="110023135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Site</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110015455"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="110015455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Density (stems/m2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="110023135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Childs</a:t>
             </a:r>
             <a:r>
@@ -5658,7 +6550,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6471,6 +7363,46 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10534,6 +11466,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -10761,6 +12196,47 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300789</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>13368</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>173790</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF08F00-5132-98AA-8AE6-AF8F08C6EC1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -49809,8 +51285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2047459A-84CF-4C10-AB46-31EB1D52CDD3}">
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54971,15 +56447,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B619D04-E133-4BF1-9395-0C4F8970C308}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="23" max="23" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>102023</v>
       </c>
@@ -55043,8 +56523,20 @@
       <c r="U1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="X1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -55108,8 +56600,27 @@
       <c r="U2">
         <v>113</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W2" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="X2">
+        <f>GEOMEAN(B6:K6)</f>
+        <v>3.3680239158136192</v>
+      </c>
+      <c r="Y2">
+        <f>SUM(B2:K2)</f>
+        <v>451</v>
+      </c>
+      <c r="Z2">
+        <f>GEOMEAN(L6:U6)</f>
+        <v>7.3718844909256172</v>
+      </c>
+      <c r="AA2">
+        <f>SUM(L2:U2)</f>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -55173,8 +56684,27 @@
       <c r="U3">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W3" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="X3">
+        <f>GEOMEAN(B15:K15)</f>
+        <v>2.9973791895270216</v>
+      </c>
+      <c r="Y3">
+        <f>SUM(B11:K11)</f>
+        <v>263</v>
+      </c>
+      <c r="Z3">
+        <f>GEOMEAN(L15:U15)</f>
+        <v>6.8252267978561836</v>
+      </c>
+      <c r="AA3">
+        <f>SUM(L11:U11)</f>
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -55238,8 +56768,27 @@
       <c r="U4">
         <v>3.14</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W4" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="X4">
+        <f>GEOMEAN(C24:K24)</f>
+        <v>2.0846503512577725</v>
+      </c>
+      <c r="Y4">
+        <f>SUM(B20:K20)</f>
+        <v>306</v>
+      </c>
+      <c r="Z4">
+        <f>GEOMEAN(L24:U24)</f>
+        <v>1.9568612658034923</v>
+      </c>
+      <c r="AA4">
+        <f>SUM(L20:U20)</f>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -55304,7 +56853,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -55369,7 +56918,7 @@
         <v>35.987261146496813</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>106</v>
       </c>
@@ -55434,7 +56983,7 @@
         <v>28.509474562347254</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>107</v>
       </c>
@@ -55499,7 +57048,7 @@
         <v>2.4908729060074632</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>110</v>
       </c>
@@ -55564,7 +57113,7 @@
         <v>114.45575763254872</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>62024</v>
       </c>
@@ -55629,7 +57178,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -55694,7 +57243,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -55759,7 +57308,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -55824,7 +57373,7 @@
         <v>3.14</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -55889,7 +57438,7 @@
         <v>0.28048780487804881</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -55954,7 +57503,7 @@
         <v>47.452229299363054</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -56736,6 +58285,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="X2:X4 AA2:AA4 Z2:Z4 Y2:Y4" formulaRange="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
